--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,10 +84,6 @@
     <t>http://www.who.int/immunization_monitoring/diseases/MNTE_resources/en/</t>
   </si>
   <si>
-    <t>孟加拉国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>贝宁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -100,10 +101,6 @@
   </si>
   <si>
     <t>喀麦隆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中非共和国</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1410,16 +1407,22 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>孟加拉</t>
+  </si>
+  <si>
+    <t>中非</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,11 +1586,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1623,10 +1626,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1645,19 +1648,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1675,16 +1678,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1697,8 +1700,8 @@
   <cellStyles count="4">
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal_incidence_series" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1756,7 +1759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1791,7 +1794,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,21 +2005,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="52.5" customHeight="1">
@@ -2051,7 +2054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2109,12 +2112,12 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2137,12 +2140,12 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2012</v>
@@ -2165,12 +2168,12 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2012</v>
@@ -2193,12 +2196,12 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2012</v>
@@ -2221,12 +2224,12 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2012</v>
@@ -2249,12 +2252,12 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>2012</v>
@@ -2277,12 +2280,12 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -2305,12 +2308,12 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>2012</v>
@@ -2333,12 +2336,12 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>2012</v>
@@ -2361,12 +2364,12 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>2012</v>
@@ -2389,12 +2392,12 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>2012</v>
@@ -2417,12 +2420,12 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>2012</v>
@@ -2445,12 +2448,12 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>2012</v>
@@ -2473,12 +2476,12 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>2012</v>
@@ -2501,12 +2504,12 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>2012</v>
@@ -2529,12 +2532,12 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>2012</v>
@@ -2557,12 +2560,12 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>2012</v>
@@ -2585,12 +2588,12 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
         <v>2012</v>
@@ -2613,12 +2616,12 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>2012</v>
@@ -2641,12 +2644,12 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>2012</v>
@@ -2669,12 +2672,12 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>2012</v>
@@ -2697,12 +2700,12 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>2012</v>
@@ -2725,12 +2728,12 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>2012</v>
@@ -2753,12 +2756,12 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>2012</v>
@@ -2781,12 +2784,12 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>2012</v>
@@ -2809,12 +2812,12 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>2012</v>
@@ -2837,12 +2840,12 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>2012</v>
@@ -2865,12 +2868,12 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>2012</v>
@@ -2893,12 +2896,12 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>2012</v>
@@ -2921,12 +2924,12 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>2012</v>
@@ -2949,12 +2952,12 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>2012</v>
@@ -2977,12 +2980,12 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2">
         <v>2012</v>
@@ -3005,12 +3008,12 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>2012</v>
@@ -3033,12 +3036,12 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>2012</v>
@@ -3061,12 +3064,12 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>2012</v>
@@ -3089,12 +3092,12 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
         <v>2012</v>
@@ -3117,12 +3120,12 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="10">
         <v>2012</v>
@@ -3145,12 +3148,12 @@
       </c>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="10">
         <v>2012</v>
@@ -3173,12 +3176,12 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="10">
         <v>2012</v>
@@ -3201,12 +3204,12 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10">
         <v>2012</v>
@@ -3229,12 +3232,12 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="10">
         <v>2012</v>
@@ -3257,12 +3260,12 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="10">
         <v>2012</v>
@@ -3285,12 +3288,12 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="10">
         <v>2012</v>
@@ -3313,12 +3316,12 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="10">
         <v>2012</v>
@@ -3341,12 +3344,12 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="10">
         <v>2012</v>
@@ -3369,12 +3372,12 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="10">
         <v>2012</v>
@@ -3397,12 +3400,12 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="50" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2">
         <v>2001</v>
@@ -3424,15 +3427,15 @@
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2">
         <v>2002</v>
@@ -3454,15 +3457,15 @@
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2">
         <v>2003</v>
@@ -3484,15 +3487,15 @@
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2">
         <v>2004</v>
@@ -3514,15 +3517,15 @@
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
         <v>2005</v>
@@ -3544,15 +3547,15 @@
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2">
         <v>1999</v>
@@ -3575,12 +3578,12 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="56" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2">
         <v>2003</v>
@@ -3602,15 +3605,15 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2">
         <v>2000</v>
@@ -3632,15 +3635,15 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2">
         <v>1996</v>
@@ -3662,15 +3665,15 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2">
         <v>2001</v>
@@ -3693,12 +3696,12 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="60" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2">
         <v>2011</v>
@@ -3721,12 +3724,12 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2">
         <v>1999</v>
@@ -3748,15 +3751,15 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2">
         <v>2001</v>
@@ -3778,15 +3781,15 @@
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2">
         <v>1999</v>
@@ -3808,15 +3811,15 @@
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2">
         <v>2001</v>
@@ -3838,15 +3841,15 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>2000</v>
@@ -3868,15 +3871,15 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2">
         <v>2000</v>
@@ -3896,15 +3899,15 @@
       <c r="H66" s="4"/>
       <c r="I66" s="2"/>
       <c r="J66" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2">
         <v>2004</v>
@@ -3926,15 +3929,15 @@
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2">
         <v>2006</v>
@@ -3956,15 +3959,15 @@
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A69" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A69" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C69" s="2">
         <v>1993</v>
@@ -3984,15 +3987,15 @@
       <c r="H69" s="4"/>
       <c r="I69" s="2"/>
       <c r="J69" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2">
         <v>1949</v>
@@ -4014,15 +4017,15 @@
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2">
         <v>1959</v>
@@ -4044,15 +4047,15 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2">
         <v>2010</v>
@@ -4074,15 +4077,15 @@
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2">
         <v>2010</v>
@@ -4104,15 +4107,15 @@
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2">
         <v>2012</v>
@@ -4135,12 +4138,12 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2">
         <v>2012</v>
@@ -4163,12 +4166,12 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2">
         <v>2012</v>
@@ -4191,12 +4194,12 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A77" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2">
         <v>2012</v>
@@ -4219,12 +4222,12 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A78" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2">
         <v>2012</v>
@@ -4247,12 +4250,12 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A79" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" s="2">
         <v>2012</v>
@@ -4275,12 +4278,12 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2">
         <v>2012</v>
@@ -4303,12 +4306,12 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A81" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" s="2">
         <v>2012</v>
@@ -4331,12 +4334,12 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="82" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A82" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2">
         <v>2012</v>
@@ -4359,12 +4362,12 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A83" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4387,12 +4390,12 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A84" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2">
         <v>2012</v>
@@ -4415,12 +4418,12 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2">
         <v>2012</v>
@@ -4443,12 +4446,12 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A86" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -4471,12 +4474,12 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A87" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2">
         <v>2012</v>
@@ -4499,12 +4502,12 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A88" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2">
         <v>2012</v>
@@ -4527,12 +4530,12 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A89" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2">
         <v>2012</v>
@@ -4555,12 +4558,12 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="90" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A90" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2">
         <v>2012</v>
@@ -4583,12 +4586,12 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="91" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A91" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2">
         <v>2012</v>
@@ -4611,12 +4614,12 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A92" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2">
         <v>2012</v>
@@ -4639,12 +4642,12 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A93" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2">
         <v>2011</v>
@@ -4667,12 +4670,12 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A94" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>2012</v>
@@ -4695,12 +4698,12 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A95" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2">
         <v>2012</v>
@@ -4723,12 +4726,12 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A96" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2">
         <v>2012</v>
@@ -4751,12 +4754,12 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A97" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2">
         <v>2012</v>
@@ -4779,12 +4782,12 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A98" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2">
         <v>2012</v>
@@ -4807,12 +4810,12 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A99" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2">
         <v>2012</v>
@@ -4835,12 +4838,12 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100" s="2">
         <v>2012</v>
@@ -4859,16 +4862,16 @@
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2">
         <v>2011</v>
@@ -4887,16 +4890,16 @@
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C102" s="2">
         <v>2010</v>
@@ -4917,12 +4920,12 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="103" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C103" s="2">
         <v>2009</v>
@@ -4943,12 +4946,12 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2">
         <v>2010</v>
@@ -4969,16 +4972,16 @@
         <v>0.11</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="105" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2">
         <v>2010</v>
@@ -4999,16 +5002,16 @@
         <v>0.08</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2">
         <v>2010</v>
@@ -5029,16 +5032,16 @@
         <v>0.15</v>
       </c>
       <c r="I106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C107" s="2">
         <v>2010</v>
@@ -5059,16 +5062,16 @@
         <v>0.38</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2">
         <v>2010</v>
@@ -5089,16 +5092,16 @@
         <v>0.11</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2">
         <v>2010</v>
@@ -5119,16 +5122,16 @@
         <v>0.08</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2">
         <v>2010</v>
@@ -5149,16 +5152,16 @@
         <v>0.06</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C111" s="2">
         <v>2010</v>
@@ -5179,16 +5182,16 @@
         <v>0.09</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2">
         <v>2010</v>
@@ -5209,16 +5212,16 @@
         <v>0.21</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2">
         <v>2010</v>
@@ -5239,16 +5242,16 @@
         <v>0.09</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2">
         <v>2010</v>
@@ -5269,16 +5272,16 @@
         <v>0.38</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="115" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2">
         <v>2010</v>
@@ -5299,16 +5302,16 @@
         <v>0.03</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2">
         <v>2010</v>
@@ -5329,16 +5332,16 @@
         <v>0.09</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2">
         <v>2010</v>
@@ -5359,16 +5362,16 @@
         <v>0.15</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2">
         <v>2010</v>
@@ -5389,16 +5392,16 @@
         <v>0.24</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2">
         <v>2010</v>
@@ -5419,16 +5422,16 @@
         <v>0.18</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2">
         <v>2010</v>
@@ -5449,16 +5452,16 @@
         <v>0.01</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2">
         <v>2010</v>
@@ -5479,16 +5482,16 @@
         <v>0.27</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2">
         <v>2010</v>
@@ -5509,16 +5512,16 @@
         <v>0.84</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="123" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2">
         <v>2010</v>
@@ -5539,16 +5542,16 @@
         <v>0.5</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="124" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2">
         <v>2010</v>
@@ -5569,16 +5572,16 @@
         <v>0.44</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="125" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2">
         <v>2010</v>
@@ -5599,16 +5602,16 @@
         <v>0.04</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="126" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2">
         <v>2010</v>
@@ -5629,16 +5632,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="127" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2">
         <v>2009</v>
@@ -5659,12 +5662,12 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="128" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2">
         <v>2008</v>
@@ -5685,12 +5688,12 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="129" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C129" s="2">
         <v>2007</v>
@@ -5711,12 +5714,12 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="130" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2">
         <v>2006</v>
@@ -5737,12 +5740,12 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="131" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2">
         <v>2005</v>
@@ -5763,12 +5766,12 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="132" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2">
         <v>2004</v>
@@ -5789,12 +5792,12 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="133" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C133" s="2">
         <v>2003</v>
@@ -5815,12 +5818,12 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="134" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2">
         <v>2002</v>
@@ -5841,12 +5844,12 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="135" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2">
         <v>2000</v>
@@ -5865,16 +5868,16 @@
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="136" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2">
         <v>1996</v>
@@ -5893,16 +5896,16 @@
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="137" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2">
         <v>2000</v>
@@ -5924,15 +5927,15 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2">
         <v>2001</v>
@@ -5955,12 +5958,12 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="139" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2">
         <v>2002</v>
@@ -5983,12 +5986,12 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="140" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2">
         <v>2003</v>
@@ -6011,12 +6014,12 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="141" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2">
         <v>2202</v>
@@ -6038,15 +6041,15 @@
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2">
         <v>2005</v>
@@ -6068,15 +6071,15 @@
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2">
         <v>2005</v>
@@ -6098,15 +6101,15 @@
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C144" s="2">
         <v>2006</v>
@@ -6126,15 +6129,15 @@
       <c r="H144" s="4"/>
       <c r="I144" s="2"/>
       <c r="J144" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2">
         <v>2007</v>
@@ -6156,15 +6159,15 @@
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C146" s="2">
         <v>2005</v>
@@ -6186,15 +6189,15 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2">
         <v>1962</v>
@@ -6217,12 +6220,12 @@
       <c r="I147" s="2"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="148" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2">
         <v>2001</v>
@@ -6244,15 +6247,15 @@
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6274,15 +6277,15 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6305,9 +6308,9 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6319,21 +6322,21 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6341,12 +6344,12 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C153" s="2">
         <v>2010</v>
@@ -6362,15 +6365,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6383,12 +6386,12 @@
       <c r="I154" s="2"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6401,12 +6404,12 @@
       <c r="I155" s="2"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6419,12 +6422,12 @@
       <c r="I156" s="2"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6437,12 +6440,12 @@
       <c r="I157" s="2"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6460,15 +6463,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6487,12 +6490,12 @@
       <c r="I159" s="2"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6511,12 +6514,12 @@
       <c r="I160" s="2"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6535,12 +6538,12 @@
       <c r="I161" s="2"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6559,12 +6562,12 @@
       <c r="I162" s="2"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6583,12 +6586,12 @@
       <c r="I163" s="2"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C164" s="2">
         <v>1955</v>
@@ -6607,12 +6610,12 @@
       <c r="I164" s="2"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C165" s="2">
         <v>1949</v>
@@ -6628,15 +6631,15 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C166" s="2">
         <v>1996</v>
@@ -6653,12 +6656,12 @@
       <c r="I166" s="2"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C167" s="2">
         <v>1990</v>
@@ -6675,12 +6678,12 @@
       <c r="I167" s="2"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6697,12 +6700,12 @@
       <c r="I168" s="2"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6719,12 +6722,12 @@
       <c r="I169" s="2"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6741,12 +6744,12 @@
       <c r="I170" s="2"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6762,15 +6765,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6788,15 +6791,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6813,12 +6816,12 @@
       <c r="I173" s="2"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6833,17 +6836,17 @@
       <c r="I174" s="2"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6853,12 +6856,12 @@
       <c r="I175" s="2"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6875,12 +6878,12 @@
       <c r="I176" s="2"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6897,12 +6900,12 @@
       <c r="I177" s="2"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6919,12 +6922,12 @@
       <c r="I178" s="2"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6941,12 +6944,12 @@
       <c r="I179" s="2"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C180" s="2">
         <v>1990</v>
@@ -6964,15 +6967,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6990,15 +6993,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -7017,12 +7020,12 @@
       <c r="I182" s="2"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7041,12 +7044,12 @@
       <c r="I183" s="2"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7065,12 +7068,12 @@
       <c r="I184" s="2"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7089,12 +7092,12 @@
       <c r="I185" s="2"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7113,12 +7116,12 @@
       <c r="I186" s="2"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7137,12 +7140,12 @@
       <c r="I187" s="2"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7161,12 +7164,12 @@
       <c r="I188" s="2"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7185,12 +7188,12 @@
       <c r="I189" s="2"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7209,12 +7212,12 @@
       <c r="I190" s="2"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7233,12 +7236,12 @@
       <c r="I191" s="2"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7257,12 +7260,12 @@
       <c r="I192" s="2"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2">
         <v>1998</v>
@@ -7279,12 +7282,12 @@
       <c r="I193" s="2"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C194" s="2">
         <v>1993</v>
@@ -7301,12 +7304,12 @@
       <c r="I194" s="2"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C195" s="2">
         <v>2000</v>
@@ -7323,12 +7326,12 @@
       <c r="I195" s="2"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7347,12 +7350,12 @@
       <c r="I196" s="2"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7371,12 +7374,12 @@
       <c r="I197" s="2"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7395,12 +7398,12 @@
       <c r="I198" s="2"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7419,12 +7422,12 @@
       <c r="I199" s="2"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7443,12 +7446,12 @@
       <c r="I200" s="2"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7467,12 +7470,12 @@
       <c r="I201" s="2"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7490,15 +7493,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7516,15 +7519,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7542,15 +7545,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7568,15 +7571,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7594,15 +7597,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7620,15 +7623,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7646,15 +7649,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7672,15 +7675,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7698,15 +7701,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7724,15 +7727,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7750,15 +7753,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7774,15 +7777,15 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C214" s="2">
         <v>2012</v>
@@ -7801,16 +7804,16 @@
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C215" s="2">
         <v>2011</v>
@@ -7829,16 +7832,16 @@
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C216" s="2">
         <v>2010</v>
@@ -7861,12 +7864,12 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C217" s="2">
         <v>2009</v>
@@ -7889,12 +7892,12 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C218" s="2">
         <v>2008</v>
@@ -7917,12 +7920,12 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C219" s="2">
         <v>2007</v>
@@ -7945,12 +7948,12 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C220" s="2">
         <v>2006</v>
@@ -7973,12 +7976,12 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C221" s="2">
         <v>2005</v>
@@ -8001,12 +8004,12 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C222" s="2">
         <v>2004</v>
@@ -8029,12 +8032,12 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C223" s="2">
         <v>2003</v>
@@ -8057,12 +8060,12 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C224" s="2">
         <v>2002</v>
@@ -8085,12 +8088,12 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C225" s="2">
         <v>2001</v>
@@ -8113,12 +8116,12 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C226" s="2">
         <v>2000</v>
@@ -8141,12 +8144,12 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C227" s="2">
         <v>2010</v>
@@ -8167,12 +8170,12 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C228" s="2">
         <v>2009</v>
@@ -8193,12 +8196,12 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C229" s="2">
         <v>2010</v>
@@ -8217,16 +8220,16 @@
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C230" s="2">
         <v>2010</v>
@@ -8245,16 +8248,16 @@
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C231" s="2">
         <v>2010</v>
@@ -8275,16 +8278,16 @@
         <v>1.5</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8303,16 +8306,16 @@
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A233" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="J232" s="2"/>
-    </row>
-    <row r="233" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C233" s="2">
         <v>2010</v>
@@ -8333,16 +8336,16 @@
         <v>7.1</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C234" s="2">
         <v>2010</v>
@@ -8363,16 +8366,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C235" s="2">
         <v>2010</v>
@@ -8393,16 +8396,16 @@
         <v>8.1</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8423,16 +8426,16 @@
         <v>4.8</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C237" s="2">
         <v>2010</v>
@@ -8451,16 +8454,16 @@
       </c>
       <c r="H237" s="21"/>
       <c r="I237" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C238" s="2">
         <v>2010</v>
@@ -8481,16 +8484,16 @@
         <v>2.8</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C239" s="2">
         <v>2010</v>
@@ -8509,16 +8512,16 @@
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C240" s="2">
         <v>2010</v>
@@ -8539,16 +8542,16 @@
         <v>13.7</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C241" s="2">
         <v>2010</v>
@@ -8567,16 +8570,16 @@
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C242" s="2">
         <v>2010</v>
@@ -8597,16 +8600,16 @@
         <v>15.3</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C243" s="2">
         <v>2010</v>
@@ -8627,16 +8630,16 @@
         <v>9.5</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8657,16 +8660,16 @@
         <v>0.6</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C245" s="2">
         <v>2010</v>
@@ -8687,16 +8690,16 @@
         <v>11.4</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C246" s="2">
         <v>2010</v>
@@ -8715,16 +8718,16 @@
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C247" s="2">
         <v>2010</v>
@@ -8745,16 +8748,16 @@
         <v>0.8</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C248" s="2">
         <v>2010</v>
@@ -8775,16 +8778,16 @@
         <v>0.8</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C249" s="2">
         <v>2010</v>
@@ -8805,16 +8808,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C250" s="2">
         <v>2010</v>
@@ -8835,16 +8838,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C251" s="2">
         <v>2010</v>
@@ -8865,16 +8868,16 @@
         <v>2.1</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8895,16 +8898,16 @@
         <v>4.2</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C253" s="2">
         <v>2010</v>
@@ -8925,16 +8928,16 @@
         <v>9</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C254" s="2">
         <v>2010</v>
@@ -8955,16 +8958,16 @@
         <v>30</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C255" s="2">
         <v>1991</v>
@@ -8987,12 +8990,12 @@
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C256" s="2">
         <v>2000</v>
@@ -9014,15 +9017,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9044,15 +9047,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9074,15 +9077,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9104,15 +9107,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9134,15 +9137,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9164,15 +9167,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9194,15 +9197,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9224,15 +9227,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9254,15 +9257,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9284,15 +9287,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9314,15 +9317,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9344,15 +9347,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9374,15 +9377,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9404,15 +9407,15 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C270" s="2">
         <v>2010</v>
@@ -9432,15 +9435,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9462,15 +9465,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9490,15 +9493,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9520,15 +9523,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9550,15 +9553,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9580,15 +9583,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9610,15 +9613,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9640,15 +9643,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9668,15 +9671,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9696,15 +9699,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9726,15 +9729,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9756,15 +9759,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A282" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A282" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9786,15 +9789,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9816,15 +9819,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9846,15 +9849,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A285" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A285" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9874,15 +9877,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9900,19 +9903,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9932,15 +9935,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9962,15 +9965,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9992,15 +9995,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -10021,16 +10024,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J290" s="7"/>
     </row>
-    <row r="291" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10051,16 +10054,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J291" s="7"/>
     </row>
-    <row r="292" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10081,16 +10084,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J292" s="7"/>
     </row>
-    <row r="293" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10107,16 +10110,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J293" s="7"/>
     </row>
-    <row r="294" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10135,18 +10138,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J294" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A295" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B295" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="J294" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A295" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10167,12 +10170,12 @@
       <c r="I295" s="5"/>
       <c r="J295" s="7"/>
     </row>
-    <row r="296" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10185,16 +10188,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J296" s="7"/>
     </row>
-    <row r="297" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10209,16 +10212,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J297" s="7"/>
+    </row>
+    <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
+      <c r="A298" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="J297" s="7"/>
-    </row>
-    <row r="298" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A298" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10237,16 +10240,16 @@
       </c>
       <c r="H298" s="4"/>
       <c r="I298" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10265,16 +10268,16 @@
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10297,12 +10300,12 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10325,12 +10328,12 @@
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10353,12 +10356,12 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10381,12 +10384,12 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10409,12 +10412,12 @@
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
     </row>
-    <row r="305" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10437,12 +10440,12 @@
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10465,12 +10468,12 @@
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10493,12 +10496,12 @@
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
     </row>
-    <row r="308" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10521,12 +10524,12 @@
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10549,12 +10552,12 @@
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10577,12 +10580,12 @@
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10603,12 +10606,12 @@
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10629,12 +10632,12 @@
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
     </row>
-    <row r="313" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10653,16 +10656,16 @@
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10681,16 +10684,16 @@
       </c>
       <c r="H314" s="4"/>
       <c r="I314" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10711,16 +10714,16 @@
         <v>6.1</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10739,16 +10742,16 @@
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10769,16 +10772,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10799,16 +10802,16 @@
         <v>7.5</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10829,16 +10832,16 @@
         <v>5</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10859,16 +10862,16 @@
         <v>3.7</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10887,16 +10890,16 @@
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10917,16 +10920,16 @@
         <v>3.7</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10947,16 +10950,16 @@
         <v>2.1</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10975,16 +10978,16 @@
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -11005,16 +11008,16 @@
         <v>2.1</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J325" s="2"/>
     </row>
-    <row r="326" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11033,16 +11036,16 @@
       </c>
       <c r="H326" s="4"/>
       <c r="I326" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11063,16 +11066,16 @@
         <v>5.4</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11093,16 +11096,16 @@
         <v>10.4</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11123,16 +11126,16 @@
         <v>2.6</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11153,16 +11156,16 @@
         <v>6.1</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11181,16 +11184,16 @@
       </c>
       <c r="H331" s="4"/>
       <c r="I331" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11211,16 +11214,16 @@
         <v>2.4</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11241,16 +11244,16 @@
         <v>1.7</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11271,16 +11274,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11301,16 +11304,16 @@
         <v>6.1</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11331,16 +11334,16 @@
         <v>2</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11361,16 +11364,16 @@
         <v>6.3</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11391,16 +11394,16 @@
         <v>2.1</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11421,16 +11424,16 @@
         <v>4.7</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J339" s="2"/>
     </row>
-    <row r="340" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11449,16 +11452,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J340" s="2"/>
     </row>
-    <row r="341" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11477,16 +11480,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J341" s="2"/>
     </row>
-    <row r="342" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11507,12 +11510,12 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+    <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11534,15 +11537,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11564,15 +11567,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11594,15 +11597,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11624,15 +11627,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11654,15 +11657,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11682,15 +11685,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11710,15 +11713,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11738,15 +11741,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11766,15 +11769,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11794,15 +11797,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11822,15 +11825,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11852,15 +11855,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11882,15 +11885,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11910,15 +11913,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11940,15 +11943,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11970,15 +11973,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -12000,15 +12003,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -12028,15 +12031,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12056,15 +12059,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12086,15 +12089,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" s="6" customFormat="1" ht="21.95" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12116,7 +12119,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12129,5 +12132,10 @@
     <hyperlink ref="I341" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,14 +567,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>老挝人民民主共和国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳米尼亚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>荷兰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1412,6 +1404,12 @@
   </si>
   <si>
     <t>中非</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2117,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2285,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -4367,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4451,7 +4449,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -4507,7 +4505,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2">
         <v>2012</v>
@@ -4563,7 +4561,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2">
         <v>2012</v>
@@ -4675,7 +4673,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2">
         <v>2012</v>
@@ -4703,7 +4701,7 @@
         <v>87</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2">
         <v>2012</v>
@@ -4731,7 +4729,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2">
         <v>2012</v>
@@ -4759,7 +4757,7 @@
         <v>87</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2">
         <v>2012</v>
@@ -4840,7 +4838,7 @@
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>23</v>
@@ -4862,13 +4860,13 @@
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>23</v>
@@ -4890,16 +4888,16 @@
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C102" s="2">
         <v>2010</v>
@@ -4922,10 +4920,10 @@
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C103" s="2">
         <v>2009</v>
@@ -4948,10 +4946,10 @@
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2">
         <v>2010</v>
@@ -4972,13 +4970,13 @@
         <v>0.11</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>99</v>
@@ -5002,16 +5000,16 @@
         <v>0.08</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2">
         <v>2010</v>
@@ -5032,16 +5030,16 @@
         <v>0.15</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2">
         <v>2010</v>
@@ -5062,16 +5060,16 @@
         <v>0.38</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2">
         <v>2010</v>
@@ -5092,16 +5090,16 @@
         <v>0.11</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2">
         <v>2010</v>
@@ -5122,16 +5120,16 @@
         <v>0.08</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2">
         <v>2010</v>
@@ -5152,13 +5150,13 @@
         <v>0.06</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>95</v>
@@ -5182,16 +5180,16 @@
         <v>0.09</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2">
         <v>2010</v>
@@ -5212,16 +5210,16 @@
         <v>0.21</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2">
         <v>2010</v>
@@ -5242,16 +5240,16 @@
         <v>0.09</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2">
         <v>2010</v>
@@ -5272,16 +5270,16 @@
         <v>0.38</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2">
         <v>2010</v>
@@ -5302,13 +5300,13 @@
         <v>0.03</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>93</v>
@@ -5332,16 +5330,16 @@
         <v>0.09</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2">
         <v>2010</v>
@@ -5362,16 +5360,16 @@
         <v>0.15</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2">
         <v>2010</v>
@@ -5392,16 +5390,16 @@
         <v>0.24</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2">
         <v>2010</v>
@@ -5422,16 +5420,16 @@
         <v>0.18</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2">
         <v>2010</v>
@@ -5452,16 +5450,16 @@
         <v>0.01</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2">
         <v>2010</v>
@@ -5482,16 +5480,16 @@
         <v>0.27</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2">
         <v>2010</v>
@@ -5512,16 +5510,16 @@
         <v>0.84</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2">
         <v>2010</v>
@@ -5542,16 +5540,16 @@
         <v>0.5</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2">
         <v>2010</v>
@@ -5572,16 +5570,16 @@
         <v>0.44</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2">
         <v>2010</v>
@@ -5602,16 +5600,16 @@
         <v>0.04</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2">
         <v>2010</v>
@@ -5632,16 +5630,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2">
         <v>2009</v>
@@ -5664,10 +5662,10 @@
     </row>
     <row r="128" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C128" s="2">
         <v>2008</v>
@@ -5690,10 +5688,10 @@
     </row>
     <row r="129" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2">
         <v>2007</v>
@@ -5716,10 +5714,10 @@
     </row>
     <row r="130" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2">
         <v>2006</v>
@@ -5742,10 +5740,10 @@
     </row>
     <row r="131" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2">
         <v>2005</v>
@@ -5768,10 +5766,10 @@
     </row>
     <row r="132" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2">
         <v>2004</v>
@@ -5794,10 +5792,10 @@
     </row>
     <row r="133" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2">
         <v>2003</v>
@@ -5820,10 +5818,10 @@
     </row>
     <row r="134" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C134" s="2">
         <v>2002</v>
@@ -5846,10 +5844,10 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2">
         <v>2000</v>
@@ -5868,16 +5866,16 @@
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2">
         <v>1996</v>
@@ -5896,16 +5894,16 @@
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C137" s="2">
         <v>2000</v>
@@ -5927,15 +5925,15 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C138" s="2">
         <v>2001</v>
@@ -5960,10 +5958,10 @@
     </row>
     <row r="139" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" s="2">
         <v>2002</v>
@@ -5988,10 +5986,10 @@
     </row>
     <row r="140" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C140" s="2">
         <v>2003</v>
@@ -6016,7 +6014,7 @@
     </row>
     <row r="141" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>77</v>
@@ -6041,12 +6039,12 @@
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>79</v>
@@ -6071,15 +6069,15 @@
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2">
         <v>2005</v>
@@ -6101,15 +6099,15 @@
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2">
         <v>2006</v>
@@ -6129,15 +6127,15 @@
       <c r="H144" s="4"/>
       <c r="I144" s="2"/>
       <c r="J144" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2">
         <v>2007</v>
@@ -6159,15 +6157,15 @@
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2">
         <v>2005</v>
@@ -6189,15 +6187,15 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2">
         <v>1962</v>
@@ -6222,10 +6220,10 @@
     </row>
     <row r="148" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2">
         <v>2001</v>
@@ -6247,15 +6245,15 @@
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6277,15 +6275,15 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6310,7 +6308,7 @@
     </row>
     <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6324,7 +6322,7 @@
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>23</v>
@@ -6332,11 +6330,11 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6346,7 +6344,7 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
@@ -6365,15 +6363,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6388,10 +6386,10 @@
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6406,10 +6404,10 @@
     </row>
     <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6424,10 +6422,10 @@
     </row>
     <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6442,10 +6440,10 @@
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6463,15 +6461,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6492,10 +6490,10 @@
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6516,10 +6514,10 @@
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6540,10 +6538,10 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6564,10 +6562,10 @@
     </row>
     <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6588,7 +6586,7 @@
     </row>
     <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>28</v>
@@ -6612,7 +6610,7 @@
     </row>
     <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>23</v>
@@ -6631,12 +6629,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -6658,7 +6656,7 @@
     </row>
     <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -6680,10 +6678,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6702,10 +6700,10 @@
     </row>
     <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6724,10 +6722,10 @@
     </row>
     <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6746,10 +6744,10 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6765,15 +6763,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6791,15 +6789,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6818,10 +6816,10 @@
     </row>
     <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6838,15 +6836,15 @@
     </row>
     <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6858,10 +6856,10 @@
     </row>
     <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6880,10 +6878,10 @@
     </row>
     <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6902,10 +6900,10 @@
     </row>
     <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6924,10 +6922,10 @@
     </row>
     <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6946,7 +6944,7 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -6967,15 +6965,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6993,15 +6991,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -7022,10 +7020,10 @@
     </row>
     <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7046,10 +7044,10 @@
     </row>
     <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7070,10 +7068,10 @@
     </row>
     <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7094,10 +7092,10 @@
     </row>
     <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7118,10 +7116,10 @@
     </row>
     <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7142,10 +7140,10 @@
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7166,10 +7164,10 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7190,10 +7188,10 @@
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7214,10 +7212,10 @@
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7238,10 +7236,10 @@
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7262,10 +7260,10 @@
     </row>
     <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C193" s="2">
         <v>1998</v>
@@ -7284,10 +7282,10 @@
     </row>
     <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C194" s="2">
         <v>1993</v>
@@ -7306,7 +7304,7 @@
     </row>
     <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -7328,10 +7326,10 @@
     </row>
     <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7352,10 +7350,10 @@
     </row>
     <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7376,10 +7374,10 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7400,10 +7398,10 @@
     </row>
     <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7424,10 +7422,10 @@
     </row>
     <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7448,10 +7446,10 @@
     </row>
     <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7472,10 +7470,10 @@
     </row>
     <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7493,15 +7491,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7519,15 +7517,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7545,15 +7543,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7571,15 +7569,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7597,15 +7595,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7623,15 +7621,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7649,15 +7647,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7675,15 +7673,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7701,15 +7699,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7727,15 +7725,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7753,15 +7751,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7777,12 +7775,12 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -7804,13 +7802,13 @@
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -7832,13 +7830,13 @@
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
@@ -7866,7 +7864,7 @@
     </row>
     <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>56</v>
@@ -7894,7 +7892,7 @@
     </row>
     <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -7922,7 +7920,7 @@
     </row>
     <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>56</v>
@@ -7950,7 +7948,7 @@
     </row>
     <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -7978,7 +7976,7 @@
     </row>
     <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>56</v>
@@ -8006,7 +8004,7 @@
     </row>
     <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>56</v>
@@ -8034,7 +8032,7 @@
     </row>
     <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>56</v>
@@ -8062,7 +8060,7 @@
     </row>
     <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>56</v>
@@ -8090,7 +8088,7 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>56</v>
@@ -8118,7 +8116,7 @@
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>56</v>
@@ -8146,10 +8144,10 @@
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C227" s="2">
         <v>2010</v>
@@ -8172,10 +8170,10 @@
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C228" s="2">
         <v>2009</v>
@@ -8198,10 +8196,10 @@
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C229" s="2">
         <v>2010</v>
@@ -8220,13 +8218,13 @@
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>99</v>
@@ -8248,16 +8246,16 @@
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C231" s="2">
         <v>2010</v>
@@ -8278,16 +8276,16 @@
         <v>1.5</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8306,16 +8304,16 @@
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C233" s="2">
         <v>2010</v>
@@ -8336,16 +8334,16 @@
         <v>7.1</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C234" s="2">
         <v>2010</v>
@@ -8366,16 +8364,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C235" s="2">
         <v>2010</v>
@@ -8396,16 +8394,16 @@
         <v>8.1</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8426,16 +8424,16 @@
         <v>4.8</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C237" s="2">
         <v>2010</v>
@@ -8454,16 +8452,16 @@
       </c>
       <c r="H237" s="21"/>
       <c r="I237" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C238" s="2">
         <v>2010</v>
@@ -8484,16 +8482,16 @@
         <v>2.8</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C239" s="2">
         <v>2010</v>
@@ -8512,16 +8510,16 @@
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C240" s="2">
         <v>2010</v>
@@ -8542,16 +8540,16 @@
         <v>13.7</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C241" s="2">
         <v>2010</v>
@@ -8570,13 +8568,13 @@
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>93</v>
@@ -8600,16 +8598,16 @@
         <v>15.3</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C243" s="2">
         <v>2010</v>
@@ -8630,16 +8628,16 @@
         <v>9.5</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8660,16 +8658,16 @@
         <v>0.6</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C245" s="2">
         <v>2010</v>
@@ -8690,16 +8688,16 @@
         <v>11.4</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J245" s="2"/>
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C246" s="2">
         <v>2010</v>
@@ -8718,16 +8716,16 @@
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J246" s="2"/>
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C247" s="2">
         <v>2010</v>
@@ -8748,16 +8746,16 @@
         <v>0.8</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J247" s="2"/>
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C248" s="2">
         <v>2010</v>
@@ -8778,16 +8776,16 @@
         <v>0.8</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J248" s="2"/>
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C249" s="2">
         <v>2010</v>
@@ -8808,16 +8806,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J249" s="2"/>
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C250" s="2">
         <v>2010</v>
@@ -8838,16 +8836,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J250" s="2"/>
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C251" s="2">
         <v>2010</v>
@@ -8868,16 +8866,16 @@
         <v>2.1</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J251" s="2"/>
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8898,16 +8896,16 @@
         <v>4.2</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J252" s="2"/>
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C253" s="2">
         <v>2010</v>
@@ -8928,16 +8926,16 @@
         <v>9</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J253" s="2"/>
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C254" s="2">
         <v>2010</v>
@@ -8958,13 +8956,13 @@
         <v>30</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J254" s="2"/>
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -8992,7 +8990,7 @@
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>81</v>
@@ -9017,15 +9015,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9047,15 +9045,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9077,15 +9075,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9107,15 +9105,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9137,15 +9135,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9167,15 +9165,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9197,15 +9195,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9227,15 +9225,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9257,15 +9255,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9287,15 +9285,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9317,15 +9315,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9347,15 +9345,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9377,15 +9375,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9407,12 +9405,12 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>79</v>
@@ -9435,15 +9433,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9465,15 +9463,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9493,15 +9491,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9523,15 +9521,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9553,15 +9551,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9583,15 +9581,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9613,15 +9611,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9643,15 +9641,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9671,15 +9669,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9699,15 +9697,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9729,15 +9727,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9759,15 +9757,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9789,15 +9787,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9819,15 +9817,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9849,15 +9847,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A285" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9877,15 +9875,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9903,19 +9901,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9935,15 +9933,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9965,15 +9963,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9995,15 +9993,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -10024,16 +10022,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J290" s="7"/>
     </row>
     <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10054,16 +10052,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J291" s="7"/>
     </row>
     <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10084,16 +10082,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J292" s="7"/>
     </row>
     <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10110,16 +10108,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J293" s="7"/>
     </row>
     <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10138,18 +10136,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J294" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10172,10 +10170,10 @@
     </row>
     <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10188,16 +10186,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J296" s="7"/>
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10212,16 +10210,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J297" s="7"/>
     </row>
     <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10240,16 +10238,16 @@
       </c>
       <c r="H298" s="4"/>
       <c r="I298" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10268,16 +10266,16 @@
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J299" s="2"/>
     </row>
     <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10302,10 +10300,10 @@
     </row>
     <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10330,10 +10328,10 @@
     </row>
     <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10358,10 +10356,10 @@
     </row>
     <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10386,10 +10384,10 @@
     </row>
     <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10414,10 +10412,10 @@
     </row>
     <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10442,10 +10440,10 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10470,10 +10468,10 @@
     </row>
     <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10498,10 +10496,10 @@
     </row>
     <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10526,10 +10524,10 @@
     </row>
     <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10554,10 +10552,10 @@
     </row>
     <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10582,10 +10580,10 @@
     </row>
     <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10608,10 +10606,10 @@
     </row>
     <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10634,10 +10632,10 @@
     </row>
     <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10656,16 +10654,16 @@
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J313" s="2"/>
     </row>
     <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10684,16 +10682,16 @@
       </c>
       <c r="H314" s="4"/>
       <c r="I314" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J314" s="2"/>
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10714,16 +10712,16 @@
         <v>6.1</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J315" s="2"/>
     </row>
     <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10742,16 +10740,16 @@
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J316" s="2"/>
     </row>
     <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10772,16 +10770,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J317" s="2"/>
     </row>
     <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10802,16 +10800,16 @@
         <v>7.5</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J318" s="2"/>
     </row>
     <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10832,16 +10830,16 @@
         <v>5</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J319" s="2"/>
     </row>
     <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10862,16 +10860,16 @@
         <v>3.7</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J320" s="2"/>
     </row>
     <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10890,16 +10888,16 @@
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J321" s="2"/>
     </row>
     <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10920,16 +10918,16 @@
         <v>3.7</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J322" s="2"/>
     </row>
     <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10950,16 +10948,16 @@
         <v>2.1</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J323" s="2"/>
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10978,16 +10976,16 @@
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J324" s="2"/>
     </row>
     <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -11008,16 +11006,16 @@
         <v>2.1</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J325" s="2"/>
     </row>
     <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11036,16 +11034,16 @@
       </c>
       <c r="H326" s="4"/>
       <c r="I326" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J326" s="2"/>
     </row>
     <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11066,16 +11064,16 @@
         <v>5.4</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J327" s="2"/>
     </row>
     <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11096,16 +11094,16 @@
         <v>10.4</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J328" s="2"/>
     </row>
     <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11126,16 +11124,16 @@
         <v>2.6</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J329" s="2"/>
     </row>
     <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11156,16 +11154,16 @@
         <v>6.1</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J330" s="2"/>
     </row>
     <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11184,16 +11182,16 @@
       </c>
       <c r="H331" s="4"/>
       <c r="I331" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J331" s="2"/>
     </row>
     <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11214,16 +11212,16 @@
         <v>2.4</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J332" s="2"/>
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11244,16 +11242,16 @@
         <v>1.7</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J333" s="2"/>
     </row>
     <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11274,16 +11272,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J334" s="2"/>
     </row>
     <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11304,16 +11302,16 @@
         <v>6.1</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J335" s="2"/>
     </row>
     <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11334,16 +11332,16 @@
         <v>2</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J336" s="2"/>
     </row>
     <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11364,16 +11362,16 @@
         <v>6.3</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J337" s="2"/>
     </row>
     <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11394,16 +11392,16 @@
         <v>2.1</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J338" s="2"/>
     </row>
     <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11424,16 +11422,16 @@
         <v>4.7</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J339" s="2"/>
     </row>
     <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11452,16 +11450,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11480,16 +11478,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11512,10 +11510,10 @@
     </row>
     <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11537,15 +11535,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11567,15 +11565,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11597,15 +11595,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11627,15 +11625,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11657,15 +11655,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11685,15 +11683,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11713,15 +11711,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11741,15 +11739,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11769,15 +11767,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11797,15 +11795,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11825,15 +11823,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11855,15 +11853,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11885,15 +11883,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11913,15 +11911,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11943,15 +11941,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11973,15 +11971,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -12003,15 +12001,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -12031,15 +12029,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12059,15 +12057,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12089,15 +12087,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12119,7 +12117,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>四川</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>培养分离出钩体的宿主动物主要为高山姬鼠， 而不是黑线姬鼠</t>
   </si>
   <si>
@@ -762,13 +758,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2010 年度共发现15 岁以下儿童麻风病39例，占2．9％。2010 年度在低流行区华北和东北地区均未发现儿童病例，历史高流行区华东地区也未发现儿童病例。2010 年度新发现病例中，男905 例，占68．4％，
-女419 例，占31．6％，男女比为2．2∶12010 年度共在流动人口中新发现麻风病例121 例，占新发现病例总数的9．1％。
-新发现流动人口麻风病例主要分布在上海、北京、浙江、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。全国流
-动人口中新发现麻风病例有29．8％分布在广东，其次为浙江（16．5％）、四川（14．9％）和云南（14．0％）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>云南</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -810,10 +799,6 @@
   </si>
   <si>
     <t>男性354539例，女性116682例，33例性别不明，性别比3.04；平均发病年龄（37.7±19.3）岁，累计发现儿童病例23884例。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏、云南、贵州、四川这4 个省(区)1996年现症病人数为3711例, 占现症病人总数的59.1% , 患病率0.198/ 万, 而其他省(市、自治区)的患病率为0.027 / 万。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -949,10 +934,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>四川省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>男性多于女性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1306,10 +1287,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>四川省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>男性多于女性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1410,6 +1387,21 @@
   </si>
   <si>
     <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>2010 年度共发现15 岁以下儿童麻风病39例，占2．9％。2010 年度在低流行区华北和东北地区均未发现儿童病例，历史高流行区华东地区也未发现儿童病例。2010 年度新发现病例中，男905 例，占68．4％，
+女419 例，占31．6％，男女比为2．2∶12010 年度共在流动人口中新发现麻风病例121 例，占新发现病例总数的9．1％。
+新发现流动人口麻风病例主要分布在上海、北京、浙江、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。全国流
+动人口中新发现麻风病例有29．8％分布在广东，其次为浙江（16．5％）、四川省（14．9％）和云南（14．0％）</t>
+  </si>
+  <si>
+    <t>西藏、云南、贵州、四川省这4 个省(区)1996年现症病人数为3711例, 占现症病人总数的59.1% , 患病率0.198/ 万, 而其他省(市、自治区)的患病率为0.027 / 万。</t>
+  </si>
+  <si>
+    <t>四川省省</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +1996,7 @@
   <dimension ref="A1:J363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+      <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2115,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2283,7 +2275,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -4365,7 +4357,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4449,7 +4441,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -6253,7 +6245,7 @@
         <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6275,7 +6267,7 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6283,7 +6275,7 @@
         <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6308,7 +6300,7 @@
     </row>
     <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6322,7 +6314,7 @@
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>23</v>
@@ -6330,11 +6322,11 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6344,7 +6336,7 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
@@ -6363,15 +6355,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6386,10 +6378,10 @@
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6404,10 +6396,10 @@
     </row>
     <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6422,10 +6414,10 @@
     </row>
     <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6440,10 +6432,10 @@
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6461,15 +6453,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6490,10 +6482,10 @@
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6514,10 +6506,10 @@
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6538,10 +6530,10 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6562,10 +6554,10 @@
     </row>
     <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6586,7 +6578,7 @@
     </row>
     <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>28</v>
@@ -6610,7 +6602,7 @@
     </row>
     <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>23</v>
@@ -6629,12 +6621,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -6656,7 +6648,7 @@
     </row>
     <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -6678,10 +6670,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6700,10 +6692,10 @@
     </row>
     <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6722,10 +6714,10 @@
     </row>
     <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6744,10 +6736,10 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6763,15 +6755,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6789,15 +6781,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6816,10 +6808,10 @@
     </row>
     <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6836,15 +6828,15 @@
     </row>
     <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6856,10 +6848,10 @@
     </row>
     <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6878,10 +6870,10 @@
     </row>
     <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6900,10 +6892,10 @@
     </row>
     <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6922,10 +6914,10 @@
     </row>
     <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6944,7 +6936,7 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -6965,15 +6957,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6991,15 +6983,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -7020,10 +7012,10 @@
     </row>
     <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7044,10 +7036,10 @@
     </row>
     <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7068,10 +7060,10 @@
     </row>
     <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7092,10 +7084,10 @@
     </row>
     <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7116,10 +7108,10 @@
     </row>
     <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7140,10 +7132,10 @@
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7164,10 +7156,10 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7188,10 +7180,10 @@
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7212,10 +7204,10 @@
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7236,10 +7228,10 @@
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7260,7 +7252,7 @@
     </row>
     <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>140</v>
@@ -7282,7 +7274,7 @@
     </row>
     <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>140</v>
@@ -7304,7 +7296,7 @@
     </row>
     <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -7326,10 +7318,10 @@
     </row>
     <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7350,10 +7342,10 @@
     </row>
     <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7374,10 +7366,10 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7398,10 +7390,10 @@
     </row>
     <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7422,10 +7414,10 @@
     </row>
     <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7446,10 +7438,10 @@
     </row>
     <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7470,10 +7462,10 @@
     </row>
     <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7491,15 +7483,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7517,15 +7509,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7543,15 +7535,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7569,15 +7561,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7595,15 +7587,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7621,15 +7613,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7647,15 +7639,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7673,15 +7665,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7699,15 +7691,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7725,15 +7717,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7751,15 +7743,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7775,12 +7767,12 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -7808,7 +7800,7 @@
     </row>
     <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -7836,7 +7828,7 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
@@ -7864,7 +7856,7 @@
     </row>
     <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>56</v>
@@ -7892,7 +7884,7 @@
     </row>
     <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -7920,7 +7912,7 @@
     </row>
     <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>56</v>
@@ -7948,7 +7940,7 @@
     </row>
     <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -7976,7 +7968,7 @@
     </row>
     <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>56</v>
@@ -8004,7 +7996,7 @@
     </row>
     <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>56</v>
@@ -8032,7 +8024,7 @@
     </row>
     <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>56</v>
@@ -8060,7 +8052,7 @@
     </row>
     <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>56</v>
@@ -8088,7 +8080,7 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>56</v>
@@ -8116,7 +8108,7 @@
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>56</v>
@@ -8144,7 +8136,7 @@
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>109</v>
@@ -8170,7 +8162,7 @@
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>109</v>
@@ -8196,7 +8188,7 @@
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>110</v>
@@ -8224,7 +8216,7 @@
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>99</v>
@@ -8252,7 +8244,7 @@
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>112</v>
@@ -8282,10 +8274,10 @@
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8310,7 +8302,7 @@
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>113</v>
@@ -8340,7 +8332,7 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>114</v>
@@ -8370,7 +8362,7 @@
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>115</v>
@@ -8400,10 +8392,10 @@
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8430,7 +8422,7 @@
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>116</v>
@@ -8458,7 +8450,7 @@
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>117</v>
@@ -8488,7 +8480,7 @@
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>118</v>
@@ -8516,7 +8508,7 @@
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>119</v>
@@ -8546,7 +8538,7 @@
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>120</v>
@@ -8574,7 +8566,7 @@
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>93</v>
@@ -8604,7 +8596,7 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>121</v>
@@ -8634,10 +8626,10 @@
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8664,7 +8656,7 @@
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>122</v>
@@ -8694,7 +8686,7 @@
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>101</v>
@@ -8722,7 +8714,7 @@
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>123</v>
@@ -8752,7 +8744,7 @@
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>124</v>
@@ -8782,7 +8774,7 @@
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>125</v>
@@ -8812,7 +8804,7 @@
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>126</v>
@@ -8842,7 +8834,7 @@
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>127</v>
@@ -8872,10 +8864,10 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8902,7 +8894,7 @@
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>103</v>
@@ -8932,7 +8924,7 @@
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>128</v>
@@ -8962,7 +8954,7 @@
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -8990,7 +8982,7 @@
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>81</v>
@@ -9015,15 +9007,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9045,15 +9037,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9075,15 +9067,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9105,15 +9097,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9135,15 +9127,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9165,15 +9157,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9195,15 +9187,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9225,15 +9217,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9255,15 +9247,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9285,15 +9277,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9315,15 +9307,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9345,15 +9337,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9375,15 +9367,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9405,12 +9397,12 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>79</v>
@@ -9433,15 +9425,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9463,15 +9455,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9491,15 +9483,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9521,15 +9513,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9551,15 +9543,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9581,15 +9573,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9611,15 +9603,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9641,15 +9633,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9669,15 +9661,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9697,15 +9689,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9727,15 +9719,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9757,15 +9749,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9787,15 +9779,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9817,15 +9809,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9847,15 +9839,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A285" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9875,15 +9867,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9901,19 +9893,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9933,15 +9925,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9963,15 +9955,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9993,15 +9985,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -10022,16 +10014,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J290" s="7"/>
     </row>
     <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10052,16 +10044,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J291" s="7"/>
     </row>
     <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10082,16 +10074,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J292" s="7"/>
     </row>
     <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10108,16 +10100,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J293" s="7"/>
     </row>
     <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10136,18 +10128,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J294" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10170,10 +10162,10 @@
     </row>
     <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10186,16 +10178,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J296" s="7"/>
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10210,16 +10202,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J297" s="7"/>
     </row>
     <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10244,10 +10236,10 @@
     </row>
     <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10272,10 +10264,10 @@
     </row>
     <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10300,10 +10292,10 @@
     </row>
     <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10328,10 +10320,10 @@
     </row>
     <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10356,10 +10348,10 @@
     </row>
     <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10384,10 +10376,10 @@
     </row>
     <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10412,10 +10404,10 @@
     </row>
     <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10440,10 +10432,10 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10468,10 +10460,10 @@
     </row>
     <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10496,10 +10488,10 @@
     </row>
     <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10524,10 +10516,10 @@
     </row>
     <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10552,10 +10544,10 @@
     </row>
     <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10580,10 +10572,10 @@
     </row>
     <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10606,10 +10598,10 @@
     </row>
     <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10632,10 +10624,10 @@
     </row>
     <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10660,10 +10652,10 @@
     </row>
     <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10688,10 +10680,10 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10718,10 +10710,10 @@
     </row>
     <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10746,10 +10738,10 @@
     </row>
     <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10776,10 +10768,10 @@
     </row>
     <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10806,10 +10798,10 @@
     </row>
     <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10836,10 +10828,10 @@
     </row>
     <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10866,10 +10858,10 @@
     </row>
     <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10894,10 +10886,10 @@
     </row>
     <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10924,10 +10916,10 @@
     </row>
     <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10954,10 +10946,10 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10982,10 +10974,10 @@
     </row>
     <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -11012,10 +11004,10 @@
     </row>
     <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11040,10 +11032,10 @@
     </row>
     <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11070,10 +11062,10 @@
     </row>
     <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11100,10 +11092,10 @@
     </row>
     <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11130,10 +11122,10 @@
     </row>
     <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11160,10 +11152,10 @@
     </row>
     <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11188,10 +11180,10 @@
     </row>
     <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11218,10 +11210,10 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11248,10 +11240,10 @@
     </row>
     <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11278,10 +11270,10 @@
     </row>
     <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11308,10 +11300,10 @@
     </row>
     <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11338,10 +11330,10 @@
     </row>
     <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11368,10 +11360,10 @@
     </row>
     <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11398,10 +11390,10 @@
     </row>
     <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11428,10 +11420,10 @@
     </row>
     <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11450,16 +11442,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11478,16 +11470,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11510,10 +11502,10 @@
     </row>
     <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11535,15 +11527,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11565,15 +11557,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11595,15 +11587,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11625,15 +11617,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11655,15 +11647,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11683,15 +11675,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11711,15 +11703,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11739,15 +11731,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11767,15 +11759,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11795,15 +11787,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11823,15 +11815,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11853,15 +11845,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11883,15 +11875,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11911,15 +11903,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11941,15 +11933,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11971,15 +11963,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -12001,15 +11993,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -12029,15 +12021,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12057,15 +12049,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12087,15 +12079,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12117,7 +12109,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="305">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -1399,9 +1399,6 @@
   </si>
   <si>
     <t>西藏、云南、贵州、四川省这4 个省(区)1996年现症病人数为3711例, 占现症病人总数的59.1% , 患病率0.198/ 万, 而其他省(市、自治区)的患病率为0.027 / 万。</t>
-  </si>
-  <si>
-    <t>四川省省</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +1993,7 @@
   <dimension ref="A1:J363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9165,7 +9162,7 @@
         <v>181</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9195,7 +9192,7 @@
         <v>181</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9225,7 +9222,7 @@
         <v>181</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9255,7 +9252,7 @@
         <v>181</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9285,7 +9282,7 @@
         <v>181</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9315,7 +9312,7 @@
         <v>181</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -11655,7 +11652,7 @@
         <v>247</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11683,7 +11680,7 @@
         <v>247</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11711,7 +11708,7 @@
         <v>247</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11739,7 +11736,7 @@
         <v>247</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11767,7 +11764,7 @@
         <v>247</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11795,7 +11792,7 @@
         <v>247</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6009,7 +6009,7 @@
         <v>77</v>
       </c>
       <c r="C141" s="2">
-        <v>2202</v>
+        <v>2002</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="302">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -613,10 +613,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>捷克共和国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>丹麦</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -687,10 +683,6 @@
     <t>http://www.ncbi.nlm.nih.gov/pubmed/15608875</t>
   </si>
   <si>
-    <t>河南</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>职业分布以从事田间劳动的农民为主。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -703,10 +695,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>江西</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>男性多于女性, 主要是由于农村青壮年在夏季农忙时感染所致。钩体病宿主动物监测表明, 钩体病传染源以鼠为主</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -740,10 +728,6 @@
   </si>
   <si>
     <t>培养分离出钩体的宿主动物主要为高山姬鼠， 而不是黑线姬鼠</t>
-  </si>
-  <si>
-    <t>浙江</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>麻风病</t>
@@ -946,10 +930,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>河南省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>病例最多数为农民，其次是工人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1044,10 +1024,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>浙江省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高发年龄段为 20～39 岁；重点人群是工人、农民、干部职员、商业服务业。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1192,10 +1168,6 @@
   </si>
   <si>
     <t>塞浦路斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷克共和国</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1392,13 +1364,25 @@
     <t>四川省</t>
   </si>
   <si>
+    <t>西藏、云南、贵州、四川省这4 个省(区)1996年现症病人数为3711例, 占现症病人总数的59.1% , 患病率0.198/ 万, 而其他省(市、自治区)的患病率为0.027 / 万。</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
     <t>2010 年度共发现15 岁以下儿童麻风病39例，占2．9％。2010 年度在低流行区华北和东北地区均未发现儿童病例，历史高流行区华东地区也未发现儿童病例。2010 年度新发现病例中，男905 例，占68．4％，
 女419 例，占31．6％，男女比为2．2∶12010 年度共在流动人口中新发现麻风病例121 例，占新发现病例总数的9．1％。
-新发现流动人口麻风病例主要分布在上海、北京、浙江、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。全国流
-动人口中新发现麻风病例有29．8％分布在广东，其次为浙江（16．5％）、四川省（14．9％）和云南（14．0％）</t>
-  </si>
-  <si>
-    <t>西藏、云南、贵州、四川省这4 个省(区)1996年现症病人数为3711例, 占现症病人总数的59.1% , 患病率0.198/ 万, 而其他省(市、自治区)的患病率为0.027 / 万。</t>
+新发现流动人口麻风病例主要分布在上海、北京、浙江省、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。全国流
+动人口中新发现麻风病例有29．8％分布在广东，其次为浙江省（16．5％）、四川省（14．9％）和云南（14．0％）</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="R282" sqref="R282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2104,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2272,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -4354,7 +4338,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4438,7 +4422,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -5028,7 +5012,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="C107" s="2">
         <v>2010</v>
@@ -5058,7 +5042,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2">
         <v>2010</v>
@@ -5088,7 +5072,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2">
         <v>2010</v>
@@ -5118,7 +5102,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2">
         <v>2010</v>
@@ -5178,7 +5162,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2">
         <v>2010</v>
@@ -5208,7 +5192,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2">
         <v>2010</v>
@@ -5238,7 +5222,7 @@
         <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2">
         <v>2010</v>
@@ -5268,7 +5252,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2">
         <v>2010</v>
@@ -5328,7 +5312,7 @@
         <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2">
         <v>2010</v>
@@ -5358,7 +5342,7 @@
         <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2">
         <v>2010</v>
@@ -5418,7 +5402,7 @@
         <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2">
         <v>2010</v>
@@ -5448,7 +5432,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2">
         <v>2010</v>
@@ -5478,7 +5462,7 @@
         <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2">
         <v>2010</v>
@@ -5508,7 +5492,7 @@
         <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2">
         <v>2010</v>
@@ -5538,7 +5522,7 @@
         <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2">
         <v>2010</v>
@@ -5598,7 +5582,7 @@
         <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2">
         <v>2010</v>
@@ -5628,7 +5612,7 @@
         <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2">
         <v>2009</v>
@@ -5654,7 +5638,7 @@
         <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2">
         <v>2008</v>
@@ -5680,7 +5664,7 @@
         <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2">
         <v>2007</v>
@@ -5706,7 +5690,7 @@
         <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2">
         <v>2006</v>
@@ -5732,7 +5716,7 @@
         <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2">
         <v>2005</v>
@@ -5758,7 +5742,7 @@
         <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2">
         <v>2004</v>
@@ -5784,7 +5768,7 @@
         <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2">
         <v>2003</v>
@@ -5810,7 +5794,7 @@
         <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2">
         <v>2002</v>
@@ -5836,7 +5820,7 @@
         <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2">
         <v>2000</v>
@@ -5855,7 +5839,7 @@
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J135" s="2"/>
     </row>
@@ -5864,7 +5848,7 @@
         <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2">
         <v>1996</v>
@@ -5883,7 +5867,7 @@
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J136" s="2"/>
     </row>
@@ -5892,7 +5876,7 @@
         <v>107</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="C137" s="2">
         <v>2000</v>
@@ -5914,7 +5898,7 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -5922,7 +5906,7 @@
         <v>107</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="C138" s="2">
         <v>2001</v>
@@ -5950,7 +5934,7 @@
         <v>107</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="C139" s="2">
         <v>2002</v>
@@ -5978,7 +5962,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="C140" s="2">
         <v>2003</v>
@@ -6028,7 +6012,7 @@
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6058,7 +6042,7 @@
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6066,7 +6050,7 @@
         <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="C143" s="2">
         <v>2005</v>
@@ -6088,7 +6072,7 @@
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6096,7 +6080,7 @@
         <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C144" s="2">
         <v>2006</v>
@@ -6116,7 +6100,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="2"/>
       <c r="J144" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6124,7 +6108,7 @@
         <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2">
         <v>2007</v>
@@ -6146,7 +6130,7 @@
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6154,7 +6138,7 @@
         <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2">
         <v>2005</v>
@@ -6176,7 +6160,7 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6184,7 +6168,7 @@
         <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2">
         <v>1962</v>
@@ -6212,7 +6196,7 @@
         <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="C148" s="2">
         <v>2001</v>
@@ -6234,7 +6218,7 @@
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6242,7 +6226,7 @@
         <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6264,7 +6248,7 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6272,7 +6256,7 @@
         <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6297,7 +6281,7 @@
     </row>
     <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6311,7 +6295,7 @@
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>23</v>
@@ -6319,11 +6303,11 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6333,7 +6317,7 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
@@ -6352,15 +6336,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6375,10 +6359,10 @@
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6393,10 +6377,10 @@
     </row>
     <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6411,10 +6395,10 @@
     </row>
     <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6429,10 +6413,10 @@
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6450,15 +6434,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6479,10 +6463,10 @@
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6503,10 +6487,10 @@
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6527,10 +6511,10 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6551,10 +6535,10 @@
     </row>
     <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6575,7 +6559,7 @@
     </row>
     <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>28</v>
@@ -6599,7 +6583,7 @@
     </row>
     <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>23</v>
@@ -6618,12 +6602,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -6645,7 +6629,7 @@
     </row>
     <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -6667,10 +6651,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6689,10 +6673,10 @@
     </row>
     <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6711,10 +6695,10 @@
     </row>
     <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6733,10 +6717,10 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6752,15 +6736,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6778,15 +6762,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6805,10 +6789,10 @@
     </row>
     <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6825,15 +6809,15 @@
     </row>
     <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6845,10 +6829,10 @@
     </row>
     <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6867,10 +6851,10 @@
     </row>
     <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6889,10 +6873,10 @@
     </row>
     <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6911,10 +6895,10 @@
     </row>
     <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6933,7 +6917,7 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -6954,15 +6938,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6980,15 +6964,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -7009,10 +6993,10 @@
     </row>
     <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7033,10 +7017,10 @@
     </row>
     <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7057,10 +7041,10 @@
     </row>
     <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7081,10 +7065,10 @@
     </row>
     <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7105,10 +7089,10 @@
     </row>
     <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7129,10 +7113,10 @@
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7153,10 +7137,10 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7177,10 +7161,10 @@
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7201,10 +7185,10 @@
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7225,10 +7209,10 @@
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7249,10 +7233,10 @@
     </row>
     <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C193" s="2">
         <v>1998</v>
@@ -7271,10 +7255,10 @@
     </row>
     <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C194" s="2">
         <v>1993</v>
@@ -7293,7 +7277,7 @@
     </row>
     <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -7315,10 +7299,10 @@
     </row>
     <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7339,10 +7323,10 @@
     </row>
     <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7363,10 +7347,10 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7387,10 +7371,10 @@
     </row>
     <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7411,10 +7395,10 @@
     </row>
     <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7435,10 +7419,10 @@
     </row>
     <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7459,10 +7443,10 @@
     </row>
     <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7480,15 +7464,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7506,15 +7490,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7532,15 +7516,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7558,15 +7542,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7584,15 +7568,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7610,15 +7594,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7636,15 +7620,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7662,15 +7646,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7688,15 +7672,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7714,15 +7698,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7740,15 +7724,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7764,12 +7748,12 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -7797,7 +7781,7 @@
     </row>
     <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -7825,7 +7809,7 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
@@ -7853,7 +7837,7 @@
     </row>
     <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>56</v>
@@ -7881,7 +7865,7 @@
     </row>
     <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -7909,7 +7893,7 @@
     </row>
     <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>56</v>
@@ -7937,7 +7921,7 @@
     </row>
     <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -7965,7 +7949,7 @@
     </row>
     <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>56</v>
@@ -7993,7 +7977,7 @@
     </row>
     <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>56</v>
@@ -8021,7 +8005,7 @@
     </row>
     <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>56</v>
@@ -8049,7 +8033,7 @@
     </row>
     <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>56</v>
@@ -8077,7 +8061,7 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>56</v>
@@ -8105,7 +8089,7 @@
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>56</v>
@@ -8133,7 +8117,7 @@
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>109</v>
@@ -8159,7 +8143,7 @@
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>109</v>
@@ -8185,7 +8169,7 @@
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>110</v>
@@ -8213,7 +8197,7 @@
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>99</v>
@@ -8241,7 +8225,7 @@
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>112</v>
@@ -8271,10 +8255,10 @@
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8299,10 +8283,10 @@
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="C233" s="2">
         <v>2010</v>
@@ -8329,10 +8313,10 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C234" s="2">
         <v>2010</v>
@@ -8359,10 +8343,10 @@
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C235" s="2">
         <v>2010</v>
@@ -8389,10 +8373,10 @@
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8419,10 +8403,10 @@
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C237" s="2">
         <v>2010</v>
@@ -8447,10 +8431,10 @@
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C238" s="2">
         <v>2010</v>
@@ -8477,10 +8461,10 @@
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C239" s="2">
         <v>2010</v>
@@ -8505,10 +8489,10 @@
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C240" s="2">
         <v>2010</v>
@@ -8535,10 +8519,10 @@
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C241" s="2">
         <v>2010</v>
@@ -8563,7 +8547,7 @@
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>93</v>
@@ -8593,10 +8577,10 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C243" s="2">
         <v>2010</v>
@@ -8623,10 +8607,10 @@
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8653,10 +8637,10 @@
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C245" s="2">
         <v>2010</v>
@@ -8683,7 +8667,7 @@
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>101</v>
@@ -8711,10 +8695,10 @@
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C247" s="2">
         <v>2010</v>
@@ -8741,10 +8725,10 @@
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C248" s="2">
         <v>2010</v>
@@ -8771,10 +8755,10 @@
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C249" s="2">
         <v>2010</v>
@@ -8801,10 +8785,10 @@
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C250" s="2">
         <v>2010</v>
@@ -8831,10 +8815,10 @@
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C251" s="2">
         <v>2010</v>
@@ -8861,10 +8845,10 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8891,7 +8875,7 @@
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>103</v>
@@ -8921,10 +8905,10 @@
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C254" s="2">
         <v>2010</v>
@@ -8951,7 +8935,7 @@
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -8979,7 +8963,7 @@
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>81</v>
@@ -9004,15 +8988,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9034,15 +9018,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9064,15 +9048,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9094,15 +9078,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9124,15 +9108,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9154,15 +9138,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9184,15 +9168,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9214,15 +9198,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9244,15 +9228,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9274,15 +9258,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9304,15 +9288,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9334,15 +9318,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9364,15 +9348,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9394,12 +9378,12 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>79</v>
@@ -9422,15 +9406,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9452,15 +9436,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9480,15 +9464,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9510,15 +9494,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9540,15 +9524,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9570,15 +9554,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9600,15 +9584,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9630,15 +9614,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9658,15 +9642,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9686,15 +9670,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9716,15 +9700,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9746,15 +9730,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9776,15 +9760,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9806,15 +9790,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9836,15 +9820,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A285" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9864,15 +9848,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9890,19 +9874,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B287" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9922,15 +9906,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9952,15 +9936,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9982,15 +9966,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -10011,16 +9995,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J290" s="7"/>
     </row>
     <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10041,16 +10025,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J291" s="7"/>
     </row>
     <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10071,16 +10055,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J292" s="7"/>
     </row>
     <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10097,16 +10081,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J293" s="7"/>
     </row>
     <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10125,18 +10109,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J294" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10159,10 +10143,10 @@
     </row>
     <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10175,16 +10159,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J296" s="7"/>
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10199,16 +10183,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J297" s="7"/>
     </row>
     <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10233,10 +10217,10 @@
     </row>
     <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10261,10 +10245,10 @@
     </row>
     <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10289,10 +10273,10 @@
     </row>
     <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10317,10 +10301,10 @@
     </row>
     <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10345,10 +10329,10 @@
     </row>
     <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10373,10 +10357,10 @@
     </row>
     <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10401,10 +10385,10 @@
     </row>
     <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10429,10 +10413,10 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10457,10 +10441,10 @@
     </row>
     <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10485,10 +10469,10 @@
     </row>
     <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10513,10 +10497,10 @@
     </row>
     <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10541,10 +10525,10 @@
     </row>
     <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10569,10 +10553,10 @@
     </row>
     <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10595,10 +10579,10 @@
     </row>
     <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10621,10 +10605,10 @@
     </row>
     <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10649,10 +10633,10 @@
     </row>
     <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10677,10 +10661,10 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10707,10 +10691,10 @@
     </row>
     <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10735,10 +10719,10 @@
     </row>
     <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10765,10 +10749,10 @@
     </row>
     <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10795,10 +10779,10 @@
     </row>
     <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10825,10 +10809,10 @@
     </row>
     <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10855,10 +10839,10 @@
     </row>
     <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10883,10 +10867,10 @@
     </row>
     <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10913,10 +10897,10 @@
     </row>
     <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10943,10 +10927,10 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10971,10 +10955,10 @@
     </row>
     <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -11001,10 +10985,10 @@
     </row>
     <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11029,10 +11013,10 @@
     </row>
     <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11059,10 +11043,10 @@
     </row>
     <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11089,10 +11073,10 @@
     </row>
     <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11119,10 +11103,10 @@
     </row>
     <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11149,10 +11133,10 @@
     </row>
     <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11177,10 +11161,10 @@
     </row>
     <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11207,10 +11191,10 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11237,10 +11221,10 @@
     </row>
     <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11267,10 +11251,10 @@
     </row>
     <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11297,10 +11281,10 @@
     </row>
     <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11327,10 +11311,10 @@
     </row>
     <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11357,10 +11341,10 @@
     </row>
     <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11387,10 +11371,10 @@
     </row>
     <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11417,10 +11401,10 @@
     </row>
     <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11439,16 +11423,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11467,16 +11451,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11499,10 +11483,10 @@
     </row>
     <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11524,15 +11508,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11554,15 +11538,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11584,15 +11568,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11614,15 +11598,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11644,15 +11628,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11672,15 +11656,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11700,15 +11684,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11728,15 +11712,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11756,15 +11740,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11784,15 +11768,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11812,15 +11796,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11842,15 +11826,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11872,15 +11856,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11900,15 +11884,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11930,15 +11914,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11960,15 +11944,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -11990,15 +11974,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -12018,15 +12002,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12046,15 +12030,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12076,15 +12060,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12106,7 +12090,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="300">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -699,15 +699,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>病例中农民占75. 24% ，学生占 11. 01% ，35 岁以上中老年病例占 66. 82%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -922,10 +914,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玉溪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>以18-34岁为高发期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -943,10 +931,6 @@
   </si>
   <si>
     <t>北京市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州市</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1263,10 +1247,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玉溪市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>以18-34岁为高发期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1284,10 +1264,6 @@
   </si>
   <si>
     <t>隐性梅毒报告病例数最多为隐性梅毒报告病例数最多为</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州市</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1379,10 +1355,22 @@
     <t>浙江省</t>
   </si>
   <si>
+    <t>中国</t>
+  </si>
+  <si>
     <t>2010 年度共发现15 岁以下儿童麻风病39例，占2．9％。2010 年度在低流行区华北和东北地区均未发现儿童病例，历史高流行区华东地区也未发现儿童病例。2010 年度新发现病例中，男905 例，占68．4％，
 女419 例，占31．6％，男女比为2．2∶12010 年度共在流动人口中新发现麻风病例121 例，占新发现病例总数的9．1％。
-新发现流动人口麻风病例主要分布在上海、北京、浙江省、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。全国流
+新发现流动人口麻风病例主要分布在上海、北京、浙江省、广东、江苏等发达省份，分别占其新发现病例数的100％、100％、69．0％、30．0％和19．4％。中国流
 动人口中新发现麻风病例有29．8％分布在广东，其次为浙江省（16．5％）、四川省（14．9％）和云南（14．0％）</t>
+  </si>
+  <si>
+    <t>广西省</t>
+  </si>
+  <si>
+    <t>玉溪市</t>
+  </si>
+  <si>
+    <t>福州</t>
   </si>
 </sst>
 </file>
@@ -1976,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="R282" sqref="R282"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="S356" sqref="S356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2088,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2256,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -4338,7 +4326,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4422,7 +4410,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -5012,7 +5000,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C107" s="2">
         <v>2010</v>
@@ -5876,7 +5864,7 @@
         <v>107</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2">
         <v>2000</v>
@@ -5906,7 +5894,7 @@
         <v>107</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C138" s="2">
         <v>2001</v>
@@ -5934,7 +5922,7 @@
         <v>107</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C139" s="2">
         <v>2002</v>
@@ -5962,7 +5950,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C140" s="2">
         <v>2003</v>
@@ -6050,7 +6038,7 @@
         <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C143" s="2">
         <v>2005</v>
@@ -6080,7 +6068,7 @@
         <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="C144" s="2">
         <v>2006</v>
@@ -6100,7 +6088,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="2"/>
       <c r="J144" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6108,7 +6096,7 @@
         <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C145" s="2">
         <v>2007</v>
@@ -6130,7 +6118,7 @@
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6138,7 +6126,7 @@
         <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2">
         <v>2005</v>
@@ -6160,7 +6148,7 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6168,7 +6156,7 @@
         <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2">
         <v>1962</v>
@@ -6196,7 +6184,7 @@
         <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C148" s="2">
         <v>2001</v>
@@ -6218,7 +6206,7 @@
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6226,7 +6214,7 @@
         <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6248,7 +6236,7 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6256,7 +6244,7 @@
         <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6281,7 +6269,7 @@
     </row>
     <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6295,7 +6283,7 @@
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>23</v>
@@ -6303,11 +6291,11 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6317,7 +6305,7 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
@@ -6336,15 +6324,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6359,10 +6347,10 @@
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6377,10 +6365,10 @@
     </row>
     <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6395,10 +6383,10 @@
     </row>
     <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6413,10 +6401,10 @@
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6434,15 +6422,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6463,10 +6451,10 @@
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6487,10 +6475,10 @@
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6511,10 +6499,10 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6535,10 +6523,10 @@
     </row>
     <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6559,7 +6547,7 @@
     </row>
     <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>28</v>
@@ -6583,7 +6571,7 @@
     </row>
     <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>23</v>
@@ -6602,12 +6590,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -6629,7 +6617,7 @@
     </row>
     <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -6651,10 +6639,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6673,10 +6661,10 @@
     </row>
     <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6695,10 +6683,10 @@
     </row>
     <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6717,10 +6705,10 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6736,15 +6724,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6762,15 +6750,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6789,10 +6777,10 @@
     </row>
     <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6809,15 +6797,15 @@
     </row>
     <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6829,10 +6817,10 @@
     </row>
     <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6851,10 +6839,10 @@
     </row>
     <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6873,10 +6861,10 @@
     </row>
     <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6895,10 +6883,10 @@
     </row>
     <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6917,7 +6905,7 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -6938,15 +6926,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6964,15 +6952,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -6993,10 +6981,10 @@
     </row>
     <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7017,10 +7005,10 @@
     </row>
     <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7041,10 +7029,10 @@
     </row>
     <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7065,10 +7053,10 @@
     </row>
     <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7089,10 +7077,10 @@
     </row>
     <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7113,10 +7101,10 @@
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7137,10 +7125,10 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7161,10 +7149,10 @@
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7185,10 +7173,10 @@
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7209,10 +7197,10 @@
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7233,10 +7221,10 @@
     </row>
     <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C193" s="2">
         <v>1998</v>
@@ -7255,10 +7243,10 @@
     </row>
     <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C194" s="2">
         <v>1993</v>
@@ -7277,7 +7265,7 @@
     </row>
     <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -7299,10 +7287,10 @@
     </row>
     <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7323,10 +7311,10 @@
     </row>
     <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7347,10 +7335,10 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7371,10 +7359,10 @@
     </row>
     <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7395,10 +7383,10 @@
     </row>
     <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7419,10 +7407,10 @@
     </row>
     <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7443,10 +7431,10 @@
     </row>
     <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7464,15 +7452,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7490,15 +7478,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7516,15 +7504,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7542,15 +7530,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7568,15 +7556,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7594,15 +7582,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7620,15 +7608,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7646,15 +7634,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7672,15 +7660,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7698,15 +7686,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7724,15 +7712,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7748,12 +7736,12 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -7781,7 +7769,7 @@
     </row>
     <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -7809,7 +7797,7 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
@@ -7837,7 +7825,7 @@
     </row>
     <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>56</v>
@@ -7865,7 +7853,7 @@
     </row>
     <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -7893,7 +7881,7 @@
     </row>
     <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>56</v>
@@ -7921,7 +7909,7 @@
     </row>
     <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -7949,7 +7937,7 @@
     </row>
     <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>56</v>
@@ -7977,7 +7965,7 @@
     </row>
     <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>56</v>
@@ -8005,7 +7993,7 @@
     </row>
     <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>56</v>
@@ -8033,7 +8021,7 @@
     </row>
     <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>56</v>
@@ -8061,7 +8049,7 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>56</v>
@@ -8089,7 +8077,7 @@
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>56</v>
@@ -8117,7 +8105,7 @@
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>109</v>
@@ -8143,7 +8131,7 @@
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>109</v>
@@ -8169,7 +8157,7 @@
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>110</v>
@@ -8197,7 +8185,7 @@
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>99</v>
@@ -8225,7 +8213,7 @@
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>112</v>
@@ -8255,10 +8243,10 @@
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8283,10 +8271,10 @@
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C233" s="2">
         <v>2010</v>
@@ -8313,7 +8301,7 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>113</v>
@@ -8343,7 +8331,7 @@
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>114</v>
@@ -8373,10 +8361,10 @@
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8403,7 +8391,7 @@
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>115</v>
@@ -8431,7 +8419,7 @@
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>116</v>
@@ -8461,7 +8449,7 @@
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>117</v>
@@ -8489,7 +8477,7 @@
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>118</v>
@@ -8519,7 +8507,7 @@
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>119</v>
@@ -8547,7 +8535,7 @@
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>93</v>
@@ -8577,7 +8565,7 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>120</v>
@@ -8607,10 +8595,10 @@
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8637,7 +8625,7 @@
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>121</v>
@@ -8667,7 +8655,7 @@
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>101</v>
@@ -8695,7 +8683,7 @@
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>122</v>
@@ -8725,7 +8713,7 @@
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>123</v>
@@ -8755,7 +8743,7 @@
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>124</v>
@@ -8785,7 +8773,7 @@
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>125</v>
@@ -8815,7 +8803,7 @@
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>126</v>
@@ -8845,10 +8833,10 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8875,7 +8863,7 @@
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>103</v>
@@ -8905,7 +8893,7 @@
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>127</v>
@@ -8935,7 +8923,7 @@
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -8963,7 +8951,7 @@
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>81</v>
@@ -8988,15 +8976,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9018,15 +9006,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9048,15 +9036,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9078,15 +9066,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9108,15 +9096,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9138,15 +9126,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9168,15 +9156,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9198,15 +9186,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9228,15 +9216,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9258,15 +9246,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9288,15 +9276,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9318,15 +9306,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9348,15 +9336,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9378,12 +9366,12 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>79</v>
@@ -9406,15 +9394,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9436,15 +9424,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9464,15 +9452,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9494,15 +9482,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9524,15 +9512,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9554,15 +9542,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9584,15 +9572,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9614,15 +9602,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9642,15 +9630,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9670,15 +9658,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9700,15 +9688,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9730,15 +9718,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9760,15 +9748,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9790,15 +9778,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9820,15 +9808,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A285" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9848,15 +9836,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9874,19 +9862,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9906,15 +9894,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9936,15 +9924,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9966,15 +9954,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -9995,16 +9983,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J290" s="7"/>
     </row>
     <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10025,16 +10013,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J291" s="7"/>
     </row>
     <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10055,16 +10043,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J292" s="7"/>
     </row>
     <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10081,16 +10069,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J293" s="7"/>
     </row>
     <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10109,18 +10097,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J294" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10143,10 +10131,10 @@
     </row>
     <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10159,16 +10147,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J296" s="7"/>
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10183,16 +10171,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J297" s="7"/>
     </row>
     <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10217,10 +10205,10 @@
     </row>
     <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10245,10 +10233,10 @@
     </row>
     <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10273,10 +10261,10 @@
     </row>
     <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10301,10 +10289,10 @@
     </row>
     <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10329,10 +10317,10 @@
     </row>
     <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10357,10 +10345,10 @@
     </row>
     <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10385,10 +10373,10 @@
     </row>
     <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10413,10 +10401,10 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10441,10 +10429,10 @@
     </row>
     <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10469,10 +10457,10 @@
     </row>
     <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10497,10 +10485,10 @@
     </row>
     <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10525,10 +10513,10 @@
     </row>
     <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10553,10 +10541,10 @@
     </row>
     <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10579,10 +10567,10 @@
     </row>
     <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10605,10 +10593,10 @@
     </row>
     <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10633,10 +10621,10 @@
     </row>
     <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10661,10 +10649,10 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10691,10 +10679,10 @@
     </row>
     <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10719,10 +10707,10 @@
     </row>
     <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10749,10 +10737,10 @@
     </row>
     <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10779,10 +10767,10 @@
     </row>
     <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10809,10 +10797,10 @@
     </row>
     <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10839,10 +10827,10 @@
     </row>
     <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10867,10 +10855,10 @@
     </row>
     <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10897,10 +10885,10 @@
     </row>
     <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10927,10 +10915,10 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10955,10 +10943,10 @@
     </row>
     <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -10985,10 +10973,10 @@
     </row>
     <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11013,10 +11001,10 @@
     </row>
     <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11043,10 +11031,10 @@
     </row>
     <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11073,10 +11061,10 @@
     </row>
     <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11103,10 +11091,10 @@
     </row>
     <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11133,10 +11121,10 @@
     </row>
     <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11161,10 +11149,10 @@
     </row>
     <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11191,10 +11179,10 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11221,10 +11209,10 @@
     </row>
     <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11251,10 +11239,10 @@
     </row>
     <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11281,10 +11269,10 @@
     </row>
     <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11311,10 +11299,10 @@
     </row>
     <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11341,10 +11329,10 @@
     </row>
     <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11371,10 +11359,10 @@
     </row>
     <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11401,10 +11389,10 @@
     </row>
     <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11423,16 +11411,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11451,16 +11439,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11483,10 +11471,10 @@
     </row>
     <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11508,15 +11496,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11538,15 +11526,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11568,15 +11556,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11598,15 +11586,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11628,15 +11616,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11656,15 +11644,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11684,15 +11672,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11712,15 +11700,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11740,15 +11728,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11768,15 +11756,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11796,15 +11784,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11826,15 +11814,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11856,15 +11844,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11884,15 +11872,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11914,15 +11902,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11944,15 +11932,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -11974,15 +11962,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -12002,15 +11990,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12030,15 +12018,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12060,15 +12048,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12090,7 +12078,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="298">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -707,10 +707,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>安徽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>。职业分布以农民为主,占87.15%(156/179)。年龄以15 ~ 60岁为主,占86.59%(155/179</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -806,10 +802,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>安徽省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>湖北</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1251,10 +1243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>安徽省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>病例集中在20-39岁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1371,6 +1359,9 @@
   </si>
   <si>
     <t>福州</t>
+  </si>
+  <si>
+    <t>安徽省</t>
   </si>
 </sst>
 </file>
@@ -1964,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="S356" sqref="S356"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="M277" sqref="M277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2076,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -2244,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
@@ -4326,7 +4317,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C83" s="2">
         <v>2012</v>
@@ -4410,7 +4401,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C86" s="2">
         <v>2012</v>
@@ -5000,7 +4991,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C107" s="2">
         <v>2010</v>
@@ -5864,7 +5855,7 @@
         <v>107</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C137" s="2">
         <v>2000</v>
@@ -5894,7 +5885,7 @@
         <v>107</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C138" s="2">
         <v>2001</v>
@@ -5922,7 +5913,7 @@
         <v>107</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C139" s="2">
         <v>2002</v>
@@ -5950,7 +5941,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C140" s="2">
         <v>2003</v>
@@ -6038,7 +6029,7 @@
         <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C143" s="2">
         <v>2005</v>
@@ -6068,7 +6059,7 @@
         <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C144" s="2">
         <v>2006</v>
@@ -6096,7 +6087,7 @@
         <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C145" s="2">
         <v>2007</v>
@@ -6126,7 +6117,7 @@
         <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C146" s="2">
         <v>2005</v>
@@ -6148,7 +6139,7 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6156,7 +6147,7 @@
         <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C147" s="2">
         <v>1962</v>
@@ -6184,7 +6175,7 @@
         <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C148" s="2">
         <v>2001</v>
@@ -6206,7 +6197,7 @@
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6214,7 +6205,7 @@
         <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C149" s="2">
         <v>2005</v>
@@ -6236,7 +6227,7 @@
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
@@ -6244,7 +6235,7 @@
         <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C150" s="2">
         <v>1990</v>
@@ -6269,7 +6260,7 @@
     </row>
     <row r="151" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6283,7 +6274,7 @@
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>23</v>
@@ -6291,11 +6282,11 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H152" s="2">
         <v>0.45</v>
@@ -6305,7 +6296,7 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
@@ -6324,15 +6315,15 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6347,10 +6338,10 @@
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6365,10 +6356,10 @@
     </row>
     <row r="156" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6383,10 +6374,10 @@
     </row>
     <row r="157" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6401,10 +6392,10 @@
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6422,15 +6413,15 @@
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6451,10 +6442,10 @@
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6475,10 +6466,10 @@
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6499,10 +6490,10 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6523,10 +6514,10 @@
     </row>
     <row r="163" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6547,7 +6538,7 @@
     </row>
     <row r="164" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>28</v>
@@ -6571,7 +6562,7 @@
     </row>
     <row r="165" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>23</v>
@@ -6590,12 +6581,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -6617,7 +6608,7 @@
     </row>
     <row r="167" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -6639,10 +6630,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C168" s="2">
         <v>1996</v>
@@ -6661,10 +6652,10 @@
     </row>
     <row r="169" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2">
         <v>1996</v>
@@ -6683,10 +6674,10 @@
     </row>
     <row r="170" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C170" s="2">
         <v>1996</v>
@@ -6705,10 +6696,10 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C171" s="2">
         <v>1996</v>
@@ -6724,15 +6715,15 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C172" s="2">
         <v>1990</v>
@@ -6750,15 +6741,15 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6777,10 +6768,10 @@
     </row>
     <row r="174" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6797,15 +6788,15 @@
     </row>
     <row r="175" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6817,10 +6808,10 @@
     </row>
     <row r="176" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C176" s="2">
         <v>1966</v>
@@ -6839,10 +6830,10 @@
     </row>
     <row r="177" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2">
         <v>1955</v>
@@ -6861,10 +6852,10 @@
     </row>
     <row r="178" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C178" s="2">
         <v>1958</v>
@@ -6883,10 +6874,10 @@
     </row>
     <row r="179" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C179" s="2">
         <v>1960</v>
@@ -6905,7 +6896,7 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -6926,15 +6917,15 @@
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C181" s="2">
         <v>2000</v>
@@ -6952,15 +6943,15 @@
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -6981,10 +6972,10 @@
     </row>
     <row r="183" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C183" s="2">
         <v>2001</v>
@@ -7005,10 +6996,10 @@
     </row>
     <row r="184" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C184" s="2">
         <v>2002</v>
@@ -7029,10 +7020,10 @@
     </row>
     <row r="185" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C185" s="2">
         <v>2003</v>
@@ -7053,10 +7044,10 @@
     </row>
     <row r="186" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C186" s="2">
         <v>2004</v>
@@ -7077,10 +7068,10 @@
     </row>
     <row r="187" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C187" s="2">
         <v>2005</v>
@@ -7101,10 +7092,10 @@
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2">
         <v>2006</v>
@@ -7125,10 +7116,10 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C189" s="2">
         <v>2007</v>
@@ -7149,10 +7140,10 @@
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C190" s="2">
         <v>2008</v>
@@ -7173,10 +7164,10 @@
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2">
         <v>2009</v>
@@ -7197,10 +7188,10 @@
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C192" s="2">
         <v>2010</v>
@@ -7221,10 +7212,10 @@
     </row>
     <row r="193" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C193" s="2">
         <v>1998</v>
@@ -7243,10 +7234,10 @@
     </row>
     <row r="194" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C194" s="2">
         <v>1993</v>
@@ -7265,7 +7256,7 @@
     </row>
     <row r="195" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -7287,10 +7278,10 @@
     </row>
     <row r="196" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C196" s="2">
         <v>1987</v>
@@ -7311,10 +7302,10 @@
     </row>
     <row r="197" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C197" s="2">
         <v>1988</v>
@@ -7335,10 +7326,10 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C198" s="2">
         <v>1989</v>
@@ -7359,10 +7350,10 @@
     </row>
     <row r="199" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C199" s="2">
         <v>1990</v>
@@ -7383,10 +7374,10 @@
     </row>
     <row r="200" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2">
         <v>1991</v>
@@ -7407,10 +7398,10 @@
     </row>
     <row r="201" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C201" s="2">
         <v>1992</v>
@@ -7431,10 +7422,10 @@
     </row>
     <row r="202" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C202" s="2">
         <v>1950</v>
@@ -7452,15 +7443,15 @@
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C203" s="2">
         <v>1955</v>
@@ -7478,15 +7469,15 @@
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C204" s="2">
         <v>1960</v>
@@ -7504,15 +7495,15 @@
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C205" s="2">
         <v>1965</v>
@@ -7530,15 +7521,15 @@
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C206" s="2">
         <v>1970</v>
@@ -7556,15 +7547,15 @@
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C207" s="2">
         <v>1975</v>
@@ -7582,15 +7573,15 @@
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C208" s="2">
         <v>1980</v>
@@ -7608,15 +7599,15 @@
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C209" s="2">
         <v>1985</v>
@@ -7634,15 +7625,15 @@
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C210" s="2">
         <v>1990</v>
@@ -7660,15 +7651,15 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C211" s="2">
         <v>1995</v>
@@ -7686,15 +7677,15 @@
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C212" s="2">
         <v>2000</v>
@@ -7712,15 +7703,15 @@
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C213" s="2">
         <v>2005</v>
@@ -7736,12 +7727,12 @@
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -7769,7 +7760,7 @@
     </row>
     <row r="215" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -7797,7 +7788,7 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
@@ -7825,7 +7816,7 @@
     </row>
     <row r="217" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>56</v>
@@ -7853,7 +7844,7 @@
     </row>
     <row r="218" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -7881,7 +7872,7 @@
     </row>
     <row r="219" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>56</v>
@@ -7909,7 +7900,7 @@
     </row>
     <row r="220" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -7937,7 +7928,7 @@
     </row>
     <row r="221" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>56</v>
@@ -7965,7 +7956,7 @@
     </row>
     <row r="222" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>56</v>
@@ -7993,7 +7984,7 @@
     </row>
     <row r="223" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>56</v>
@@ -8021,7 +8012,7 @@
     </row>
     <row r="224" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>56</v>
@@ -8049,7 +8040,7 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>56</v>
@@ -8077,7 +8068,7 @@
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>56</v>
@@ -8105,7 +8096,7 @@
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>109</v>
@@ -8131,7 +8122,7 @@
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>109</v>
@@ -8157,7 +8148,7 @@
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>110</v>
@@ -8185,7 +8176,7 @@
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>99</v>
@@ -8213,7 +8204,7 @@
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>112</v>
@@ -8243,10 +8234,10 @@
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C232" s="2">
         <v>2010</v>
@@ -8271,10 +8262,10 @@
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C233" s="2">
         <v>2010</v>
@@ -8301,7 +8292,7 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>113</v>
@@ -8331,7 +8322,7 @@
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>114</v>
@@ -8361,10 +8352,10 @@
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A236" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C236" s="2">
         <v>2010</v>
@@ -8391,7 +8382,7 @@
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>115</v>
@@ -8419,7 +8410,7 @@
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>116</v>
@@ -8449,7 +8440,7 @@
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>117</v>
@@ -8477,7 +8468,7 @@
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>118</v>
@@ -8507,7 +8498,7 @@
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>119</v>
@@ -8535,7 +8526,7 @@
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>93</v>
@@ -8565,7 +8556,7 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>120</v>
@@ -8595,10 +8586,10 @@
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C244" s="2">
         <v>2010</v>
@@ -8625,7 +8616,7 @@
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>121</v>
@@ -8655,7 +8646,7 @@
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>101</v>
@@ -8683,7 +8674,7 @@
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>122</v>
@@ -8713,7 +8704,7 @@
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>123</v>
@@ -8743,7 +8734,7 @@
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>124</v>
@@ -8773,7 +8764,7 @@
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>125</v>
@@ -8803,7 +8794,7 @@
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>126</v>
@@ -8833,10 +8824,10 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C252" s="2">
         <v>2010</v>
@@ -8863,7 +8854,7 @@
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>103</v>
@@ -8893,7 +8884,7 @@
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>127</v>
@@ -8923,7 +8914,7 @@
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -8951,7 +8942,7 @@
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>81</v>
@@ -8976,15 +8967,15 @@
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C257" s="2">
         <v>2003</v>
@@ -9006,15 +8997,15 @@
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C258" s="2">
         <v>2004</v>
@@ -9036,15 +9027,15 @@
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C259" s="2">
         <v>2005</v>
@@ -9066,15 +9057,15 @@
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C260" s="2">
         <v>2006</v>
@@ -9096,15 +9087,15 @@
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C261" s="2">
         <v>2007</v>
@@ -9126,15 +9117,15 @@
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C262" s="2">
         <v>2004</v>
@@ -9156,15 +9147,15 @@
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C263" s="2">
         <v>2005</v>
@@ -9186,15 +9177,15 @@
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C264" s="2">
         <v>2006</v>
@@ -9216,15 +9207,15 @@
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C265" s="2">
         <v>2007</v>
@@ -9246,15 +9237,15 @@
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C266" s="2">
         <v>2008</v>
@@ -9276,15 +9267,15 @@
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C267" s="2">
         <v>2009</v>
@@ -9306,15 +9297,15 @@
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C268" s="2">
         <v>2005</v>
@@ -9336,15 +9327,15 @@
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C269" s="2">
         <v>2005</v>
@@ -9366,12 +9357,12 @@
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>79</v>
@@ -9394,15 +9385,15 @@
       <c r="H270" s="4"/>
       <c r="I270" s="2"/>
       <c r="J270" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="C271" s="2">
         <v>2004</v>
@@ -9424,15 +9415,15 @@
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C272" s="2">
         <v>2004</v>
@@ -9452,15 +9443,15 @@
       <c r="H272" s="4"/>
       <c r="I272" s="2"/>
       <c r="J272" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C273" s="2">
         <v>2000</v>
@@ -9482,15 +9473,15 @@
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="274" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C274" s="2">
         <v>2010</v>
@@ -9512,15 +9503,15 @@
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C275" s="2">
         <v>2004</v>
@@ -9542,15 +9533,15 @@
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C276" s="2">
         <v>2006</v>
@@ -9572,15 +9563,15 @@
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C277" s="2">
         <v>1995</v>
@@ -9602,15 +9593,15 @@
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C278" s="2">
         <v>2006</v>
@@ -9630,15 +9621,15 @@
       <c r="H278" s="4"/>
       <c r="I278" s="2"/>
       <c r="J278" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C279" s="2">
         <v>2005</v>
@@ -9658,15 +9649,15 @@
       <c r="H279" s="4"/>
       <c r="I279" s="2"/>
       <c r="J279" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C280" s="2">
         <v>2004</v>
@@ -9688,15 +9679,15 @@
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C281" s="2">
         <v>2006</v>
@@ -9718,15 +9709,15 @@
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="282" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C282" s="2">
         <v>2005</v>
@@ -9748,15 +9739,15 @@
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C283" s="2">
         <v>1993</v>
@@ -9778,15 +9769,15 @@
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C284" s="2">
         <v>1997</v>
@@ -9808,15 +9799,15 @@
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A285" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C285" s="7">
         <v>2005</v>
@@ -9836,15 +9827,15 @@
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C286" s="7">
         <v>2011</v>
@@ -9862,19 +9853,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C287" s="7">
         <v>2005</v>
@@ -9894,15 +9885,15 @@
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C288" s="7">
         <v>2004</v>
@@ -9924,15 +9915,15 @@
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C289" s="7">
         <v>1982</v>
@@ -9954,15 +9945,15 @@
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C290" s="7">
         <v>2011</v>
@@ -9983,16 +9974,16 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J290" s="7"/>
     </row>
     <row r="291" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C291" s="7">
         <v>2010</v>
@@ -10013,16 +10004,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J291" s="7"/>
     </row>
     <row r="292" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C292" s="7">
         <v>2011</v>
@@ -10043,16 +10034,16 @@
         <v>24</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J292" s="7"/>
     </row>
     <row r="293" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C293" s="7">
         <v>2012</v>
@@ -10069,16 +10060,16 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J293" s="7"/>
     </row>
     <row r="294" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C294" s="7">
         <v>2009</v>
@@ -10097,18 +10088,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J294" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C295" s="7">
         <v>1928</v>
@@ -10131,10 +10122,10 @@
     </row>
     <row r="296" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C296" s="7">
         <v>2003</v>
@@ -10147,16 +10138,16 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J296" s="7"/>
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C297" s="7">
         <v>2001</v>
@@ -10171,16 +10162,16 @@
         <v>65.900000000000006</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J297" s="7"/>
     </row>
     <row r="298" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C298" s="2">
         <v>2012</v>
@@ -10205,10 +10196,10 @@
     </row>
     <row r="299" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C299" s="2">
         <v>2011</v>
@@ -10233,10 +10224,10 @@
     </row>
     <row r="300" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A300" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C300" s="2">
         <v>2010</v>
@@ -10261,10 +10252,10 @@
     </row>
     <row r="301" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A301" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C301" s="2">
         <v>2009</v>
@@ -10289,10 +10280,10 @@
     </row>
     <row r="302" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A302" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C302" s="2">
         <v>2008</v>
@@ -10317,10 +10308,10 @@
     </row>
     <row r="303" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A303" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C303" s="2">
         <v>2007</v>
@@ -10345,10 +10336,10 @@
     </row>
     <row r="304" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A304" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C304" s="2">
         <v>2006</v>
@@ -10373,10 +10364,10 @@
     </row>
     <row r="305" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A305" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C305" s="2">
         <v>2005</v>
@@ -10401,10 +10392,10 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A306" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C306" s="2">
         <v>2004</v>
@@ -10429,10 +10420,10 @@
     </row>
     <row r="307" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A307" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C307" s="2">
         <v>2003</v>
@@ -10457,10 +10448,10 @@
     </row>
     <row r="308" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A308" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C308" s="2">
         <v>2002</v>
@@ -10485,10 +10476,10 @@
     </row>
     <row r="309" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A309" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C309" s="2">
         <v>2001</v>
@@ -10513,10 +10504,10 @@
     </row>
     <row r="310" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A310" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C310" s="2">
         <v>2000</v>
@@ -10541,10 +10532,10 @@
     </row>
     <row r="311" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C311" s="2">
         <v>2010</v>
@@ -10567,10 +10558,10 @@
     </row>
     <row r="312" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C312" s="2">
         <v>2009</v>
@@ -10593,10 +10584,10 @@
     </row>
     <row r="313" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C313" s="2">
         <v>2010</v>
@@ -10621,10 +10612,10 @@
     </row>
     <row r="314" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C314" s="2">
         <v>2010</v>
@@ -10649,10 +10640,10 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C315" s="2">
         <v>2010</v>
@@ -10679,10 +10670,10 @@
     </row>
     <row r="316" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C316" s="2">
         <v>2010</v>
@@ -10707,10 +10698,10 @@
     </row>
     <row r="317" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C317" s="2">
         <v>2010</v>
@@ -10737,10 +10728,10 @@
     </row>
     <row r="318" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C318" s="2">
         <v>2010</v>
@@ -10767,10 +10758,10 @@
     </row>
     <row r="319" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C319" s="2">
         <v>2010</v>
@@ -10797,10 +10788,10 @@
     </row>
     <row r="320" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C320" s="2">
         <v>2010</v>
@@ -10827,10 +10818,10 @@
     </row>
     <row r="321" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C321" s="2">
         <v>2010</v>
@@ -10855,10 +10846,10 @@
     </row>
     <row r="322" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C322" s="2">
         <v>2010</v>
@@ -10885,10 +10876,10 @@
     </row>
     <row r="323" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C323" s="2">
         <v>2010</v>
@@ -10915,10 +10906,10 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C324" s="2">
         <v>2010</v>
@@ -10943,10 +10934,10 @@
     </row>
     <row r="325" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C325" s="2">
         <v>2010</v>
@@ -10973,10 +10964,10 @@
     </row>
     <row r="326" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C326" s="2">
         <v>2010</v>
@@ -11001,10 +10992,10 @@
     </row>
     <row r="327" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C327" s="2">
         <v>2010</v>
@@ -11031,10 +11022,10 @@
     </row>
     <row r="328" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C328" s="2">
         <v>2010</v>
@@ -11061,10 +11052,10 @@
     </row>
     <row r="329" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C329" s="2">
         <v>2010</v>
@@ -11091,10 +11082,10 @@
     </row>
     <row r="330" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C330" s="2">
         <v>2010</v>
@@ -11121,10 +11112,10 @@
     </row>
     <row r="331" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C331" s="2">
         <v>2010</v>
@@ -11149,10 +11140,10 @@
     </row>
     <row r="332" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C332" s="2">
         <v>2010</v>
@@ -11179,10 +11170,10 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C333" s="2">
         <v>2010</v>
@@ -11209,10 +11200,10 @@
     </row>
     <row r="334" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C334" s="2">
         <v>2010</v>
@@ -11239,10 +11230,10 @@
     </row>
     <row r="335" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C335" s="2">
         <v>2010</v>
@@ -11269,10 +11260,10 @@
     </row>
     <row r="336" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C336" s="2">
         <v>2010</v>
@@ -11299,10 +11290,10 @@
     </row>
     <row r="337" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C337" s="2">
         <v>2010</v>
@@ -11329,10 +11320,10 @@
     </row>
     <row r="338" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C338" s="2">
         <v>2010</v>
@@ -11359,10 +11350,10 @@
     </row>
     <row r="339" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C339" s="2">
         <v>2010</v>
@@ -11389,10 +11380,10 @@
     </row>
     <row r="340" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C340" s="2">
         <v>2008</v>
@@ -11411,16 +11402,16 @@
       </c>
       <c r="H340" s="4"/>
       <c r="I340" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C341" s="2">
         <v>2007</v>
@@ -11439,16 +11430,16 @@
       </c>
       <c r="H341" s="4"/>
       <c r="I341" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C342" s="2">
         <v>1991</v>
@@ -11471,10 +11462,10 @@
     </row>
     <row r="343" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C343" s="2">
         <v>2003</v>
@@ -11496,15 +11487,15 @@
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="344" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C344" s="2">
         <v>2004</v>
@@ -11526,15 +11517,15 @@
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="345" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C345" s="2">
         <v>2005</v>
@@ -11556,15 +11547,15 @@
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="346" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C346" s="2">
         <v>2006</v>
@@ -11586,15 +11577,15 @@
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="347" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C347" s="2">
         <v>2007</v>
@@ -11616,15 +11607,15 @@
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C348" s="2">
         <v>2004</v>
@@ -11644,15 +11635,15 @@
       <c r="H348" s="4"/>
       <c r="I348" s="2"/>
       <c r="J348" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="349" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C349" s="2">
         <v>2005</v>
@@ -11672,15 +11663,15 @@
       <c r="H349" s="4"/>
       <c r="I349" s="2"/>
       <c r="J349" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="350" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C350" s="2">
         <v>2006</v>
@@ -11700,15 +11691,15 @@
       <c r="H350" s="4"/>
       <c r="I350" s="2"/>
       <c r="J350" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C351" s="2">
         <v>2007</v>
@@ -11728,15 +11719,15 @@
       <c r="H351" s="4"/>
       <c r="I351" s="2"/>
       <c r="J351" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="352" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C352" s="2">
         <v>2008</v>
@@ -11756,15 +11747,15 @@
       <c r="H352" s="4"/>
       <c r="I352" s="2"/>
       <c r="J352" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="353" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C353" s="2">
         <v>2009</v>
@@ -11784,15 +11775,15 @@
       <c r="H353" s="4"/>
       <c r="I353" s="2"/>
       <c r="J353" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C354" s="2">
         <v>2005</v>
@@ -11814,15 +11805,15 @@
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="355" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C355" s="2">
         <v>2004</v>
@@ -11844,15 +11835,15 @@
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="356" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C356" s="2">
         <v>2004</v>
@@ -11872,15 +11863,15 @@
       <c r="H356" s="4"/>
       <c r="I356" s="2"/>
       <c r="J356" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -11902,15 +11893,15 @@
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C358" s="2">
         <v>2010</v>
@@ -11932,15 +11923,15 @@
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="359" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C359" s="2">
         <v>2004</v>
@@ -11962,15 +11953,15 @@
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C360" s="2">
         <v>2006</v>
@@ -11990,15 +11981,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="2"/>
       <c r="J360" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="361" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C361" s="2">
         <v>2005</v>
@@ -12018,15 +12009,15 @@
       <c r="H361" s="4"/>
       <c r="I361" s="2"/>
       <c r="J361" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="362" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C362" s="2">
         <v>2006</v>
@@ -12048,15 +12039,15 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="363" spans="1:10" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C363" s="2">
         <v>2004</v>
@@ -12078,7 +12069,7 @@
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -839,7 +839,7 @@
     <t>男性 １０５８３ 例，女性 １　３８５ 例,比例为7.64:1</t>
   </si>
   <si>
-    <t>沈阳市</t>
+    <t>沈阳</t>
   </si>
   <si>
     <t>20~44 组年龄组人群共报告淋病 2 590 例,占 78.25%</t>
@@ -875,13 +875,10 @@
     <t>年龄最小3岁，最大12岁</t>
   </si>
   <si>
-    <t>郑州市</t>
+    <t>郑州</t>
   </si>
   <si>
     <t>均为幼托儿童、学生、和散居儿童，其他职业构成比很低</t>
-  </si>
-  <si>
-    <t>沈阳</t>
   </si>
   <si>
     <t>学生、幼托儿童、散居儿童为猩红热病例最多的前3位</t>
@@ -1601,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="K286" sqref="K286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -9539,7 +9536,7 @@
         <v>215</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C288" s="6">
         <v>2004</v>
@@ -9561,7 +9558,7 @@
       </c>
       <c r="I288" s="13"/>
       <c r="J288" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="289" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9569,7 +9566,7 @@
         <v>215</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C289" s="6">
         <v>1982</v>
@@ -9591,7 +9588,7 @@
       </c>
       <c r="I289" s="13"/>
       <c r="J289" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="290" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9620,7 +9617,7 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J290" s="6"/>
     </row>
@@ -9650,7 +9647,7 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J291" s="6"/>
     </row>
@@ -9659,7 +9656,7 @@
         <v>215</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C292" s="6">
         <v>2011</v>
@@ -9680,7 +9677,7 @@
         <v>24</v>
       </c>
       <c r="I292" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J292" s="6"/>
     </row>
@@ -9706,7 +9703,7 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J293" s="6"/>
     </row>
@@ -9734,10 +9731,10 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J294" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="J294" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9745,7 +9742,7 @@
         <v>215</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C295" s="6">
         <v>1928</v>
@@ -9784,7 +9781,7 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J296" s="6"/>
     </row>
@@ -9808,13 +9805,13 @@
         <v>65.9</v>
       </c>
       <c r="I297" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J297" s="6"/>
     </row>
     <row r="298" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A298" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>24</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="299" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A299" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>24</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="300" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A300" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>56</v>
@@ -9898,7 +9895,7 @@
     </row>
     <row r="301" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A301" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>56</v>
@@ -9926,7 +9923,7 @@
     </row>
     <row r="302" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A302" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>56</v>
@@ -9954,7 +9951,7 @@
     </row>
     <row r="303" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A303" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>56</v>
@@ -9982,7 +9979,7 @@
     </row>
     <row r="304" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A304" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>56</v>
@@ -10010,7 +10007,7 @@
     </row>
     <row r="305" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A305" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>56</v>
@@ -10038,7 +10035,7 @@
     </row>
     <row r="306" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A306" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>56</v>
@@ -10066,7 +10063,7 @@
     </row>
     <row r="307" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A307" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>56</v>
@@ -10094,7 +10091,7 @@
     </row>
     <row r="308" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A308" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>56</v>
@@ -10122,7 +10119,7 @@
     </row>
     <row r="309" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A309" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>56</v>
@@ -10150,7 +10147,7 @@
     </row>
     <row r="310" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A310" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>56</v>
@@ -10178,7 +10175,7 @@
     </row>
     <row r="311" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A311" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>108</v>
@@ -10204,7 +10201,7 @@
     </row>
     <row r="312" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A312" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>108</v>
@@ -10230,7 +10227,7 @@
     </row>
     <row r="313" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A313" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>109</v>
@@ -10258,7 +10255,7 @@
     </row>
     <row r="314" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A314" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>98</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="315" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A315" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>111</v>
@@ -10316,7 +10313,7 @@
     </row>
     <row r="316" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A316" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>182</v>
@@ -10344,7 +10341,7 @@
     </row>
     <row r="317" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A317" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>112</v>
@@ -10374,7 +10371,7 @@
     </row>
     <row r="318" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A318" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>113</v>
@@ -10404,7 +10401,7 @@
     </row>
     <row r="319" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A319" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>114</v>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="320" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A320" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>183</v>
@@ -10464,7 +10461,7 @@
     </row>
     <row r="321" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A321" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>115</v>
@@ -10492,7 +10489,7 @@
     </row>
     <row r="322" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A322" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>95</v>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="323" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A323" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>116</v>
@@ -10552,7 +10549,7 @@
     </row>
     <row r="324" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A324" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>117</v>
@@ -10580,7 +10577,7 @@
     </row>
     <row r="325" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A325" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>118</v>
@@ -10610,7 +10607,7 @@
     </row>
     <row r="326" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A326" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>119</v>
@@ -10638,7 +10635,7 @@
     </row>
     <row r="327" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A327" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>93</v>
@@ -10668,7 +10665,7 @@
     </row>
     <row r="328" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A328" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>120</v>
@@ -10698,7 +10695,7 @@
     </row>
     <row r="329" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A329" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>184</v>
@@ -10728,7 +10725,7 @@
     </row>
     <row r="330" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A330" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>121</v>
@@ -10758,7 +10755,7 @@
     </row>
     <row r="331" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A331" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>100</v>
@@ -10786,7 +10783,7 @@
     </row>
     <row r="332" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A332" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>122</v>
@@ -10816,7 +10813,7 @@
     </row>
     <row r="333" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A333" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>123</v>
@@ -10846,7 +10843,7 @@
     </row>
     <row r="334" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A334" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>124</v>
@@ -10876,7 +10873,7 @@
     </row>
     <row r="335" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A335" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>125</v>
@@ -10906,7 +10903,7 @@
     </row>
     <row r="336" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A336" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>126</v>
@@ -10936,7 +10933,7 @@
     </row>
     <row r="337" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A337" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>185</v>
@@ -10966,7 +10963,7 @@
     </row>
     <row r="338" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A338" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>102</v>
@@ -10996,7 +10993,7 @@
     </row>
     <row r="339" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A339" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>127</v>
@@ -11026,7 +11023,7 @@
     </row>
     <row r="340" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A340" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>24</v>
@@ -11048,13 +11045,13 @@
       </c>
       <c r="H340" s="5"/>
       <c r="I340" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J340" s="3"/>
     </row>
     <row r="341" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A341" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>127</v>
@@ -11076,13 +11073,13 @@
       </c>
       <c r="H341" s="5"/>
       <c r="I341" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J341" s="3"/>
     </row>
     <row r="342" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A342" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>24</v>
@@ -11108,7 +11105,7 @@
     </row>
     <row r="343" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A343" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>187</v>
@@ -11138,7 +11135,7 @@
     </row>
     <row r="344" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A344" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>187</v>
@@ -11168,7 +11165,7 @@
     </row>
     <row r="345" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A345" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>187</v>
@@ -11198,7 +11195,7 @@
     </row>
     <row r="346" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A346" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>187</v>
@@ -11228,7 +11225,7 @@
     </row>
     <row r="347" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A347" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>187</v>
@@ -11258,7 +11255,7 @@
     </row>
     <row r="348" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A348" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>143</v>
@@ -11286,7 +11283,7 @@
     </row>
     <row r="349" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A349" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>143</v>
@@ -11314,7 +11311,7 @@
     </row>
     <row r="350" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A350" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>143</v>
@@ -11342,7 +11339,7 @@
     </row>
     <row r="351" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A351" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>143</v>
@@ -11370,7 +11367,7 @@
     </row>
     <row r="352" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A352" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>143</v>
@@ -11398,7 +11395,7 @@
     </row>
     <row r="353" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A353" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>143</v>
@@ -11426,7 +11423,7 @@
     </row>
     <row r="354" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A354" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>190</v>
@@ -11456,7 +11453,7 @@
     </row>
     <row r="355" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A355" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>140</v>
@@ -11486,7 +11483,7 @@
     </row>
     <row r="356" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A356" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>195</v>
@@ -11509,12 +11506,12 @@
       <c r="H356" s="5"/>
       <c r="I356" s="3"/>
       <c r="J356" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A357" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>64</v>
@@ -11539,12 +11536,12 @@
       </c>
       <c r="I357" s="3"/>
       <c r="J357" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A358" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>162</v>
@@ -11569,12 +11566,12 @@
       </c>
       <c r="I358" s="3"/>
       <c r="J358" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A359" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>197</v>
@@ -11599,12 +11596,12 @@
       </c>
       <c r="I359" s="3"/>
       <c r="J359" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A360" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>203</v>
@@ -11627,12 +11624,12 @@
       <c r="H360" s="5"/>
       <c r="I360" s="3"/>
       <c r="J360" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A361" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>205</v>
@@ -11655,12 +11652,12 @@
       <c r="H361" s="5"/>
       <c r="I361" s="3"/>
       <c r="J361" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A362" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>79</v>
@@ -11685,15 +11682,15 @@
       </c>
       <c r="I362" s="3"/>
       <c r="J362" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A363" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C363" s="3">
         <v>2004</v>
@@ -11715,7 +11712,7 @@
       </c>
       <c r="I363" s="3"/>
       <c r="J363" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
   <si>
     <t>疾病名中文</t>
   </si>
@@ -639,10 +639,10 @@
 动人口中新发现麻风病例有29．8％分布在广东，其次为浙江省（16．5％）、四川省（14．9％）和云南（14．0％）</t>
   </si>
   <si>
-    <t>云南</t>
-  </si>
-  <si>
-    <t>贵州</t>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>贵州省</t>
   </si>
   <si>
     <t>西藏</t>
@@ -707,7 +707,7 @@
     </r>
   </si>
   <si>
-    <t>湖北</t>
+    <t>湖北省</t>
   </si>
   <si>
     <t>1999底</t>
@@ -810,9 +810,6 @@
   </si>
   <si>
     <t>工人、农民较多，20-39岁为发病率较高的年龄段</t>
-  </si>
-  <si>
-    <t>贵州省</t>
   </si>
   <si>
     <t xml:space="preserve">006～2010 年全省 9 170 例淋病病例以农民为多 ， 占发病
@@ -1598,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="K286" sqref="K286"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="L170" sqref="L170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -9184,7 +9181,7 @@
         <v>181</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C276" s="3">
         <v>2006</v>
@@ -9206,7 +9203,7 @@
       </c>
       <c r="I276" s="3"/>
       <c r="J276" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="277" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9214,7 +9211,7 @@
         <v>181</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C277" s="3">
         <v>1995</v>
@@ -9236,7 +9233,7 @@
       </c>
       <c r="I277" s="3"/>
       <c r="J277" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="278" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9244,7 +9241,7 @@
         <v>181</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C278" s="3">
         <v>2006</v>
@@ -9264,7 +9261,7 @@
       <c r="H278" s="5"/>
       <c r="I278" s="3"/>
       <c r="J278" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="279" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9272,7 +9269,7 @@
         <v>181</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C279" s="3">
         <v>2005</v>
@@ -9292,7 +9289,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="3"/>
       <c r="J279" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="280" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9300,7 +9297,7 @@
         <v>181</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C280" s="3">
         <v>2004</v>
@@ -9322,7 +9319,7 @@
       </c>
       <c r="I280" s="3"/>
       <c r="J280" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="281" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9330,7 +9327,7 @@
         <v>181</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C281" s="3">
         <v>2006</v>
@@ -9352,7 +9349,7 @@
       </c>
       <c r="I281" s="3"/>
       <c r="J281" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="282" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9360,7 +9357,7 @@
         <v>181</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C282" s="3">
         <v>2005</v>
@@ -9382,7 +9379,7 @@
       </c>
       <c r="I282" s="3"/>
       <c r="J282" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9412,7 +9409,7 @@
       </c>
       <c r="I283" s="3"/>
       <c r="J283" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="284" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
@@ -9420,7 +9417,7 @@
         <v>181</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C284" s="3">
         <v>1997</v>
@@ -9442,12 +9439,12 @@
       </c>
       <c r="I284" s="3"/>
       <c r="J284" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A285" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>195</v>
@@ -9470,12 +9467,12 @@
       </c>
       <c r="I285" s="13"/>
       <c r="J285" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="286" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A286" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>187</v>
@@ -9496,19 +9493,19 @@
         <v>167</v>
       </c>
       <c r="H286" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I286" s="13"/>
       <c r="J286" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="287" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A287" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C287" s="6">
         <v>2005</v>
@@ -9528,15 +9525,15 @@
       </c>
       <c r="I287" s="13"/>
       <c r="J287" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A288" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C288" s="6">
         <v>2004</v>
@@ -9558,15 +9555,15 @@
       </c>
       <c r="I288" s="13"/>
       <c r="J288" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="289" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A289" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C289" s="6">
         <v>1982</v>
@@ -9588,12 +9585,12 @@
       </c>
       <c r="I289" s="13"/>
       <c r="J289" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="290" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A290" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>122</v>
@@ -9617,13 +9614,13 @@
         <v>47.4</v>
       </c>
       <c r="I290" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A291" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>122</v>
@@ -9647,16 +9644,16 @@
         <v>36.5</v>
       </c>
       <c r="I291" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J291" s="6"/>
     </row>
     <row r="292" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A292" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C292" s="6">
         <v>2011</v>
@@ -9677,13 +9674,13 @@
         <v>24</v>
       </c>
       <c r="I292" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J292" s="6"/>
     </row>
     <row r="293" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A293" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>185</v>
@@ -9703,13 +9700,13 @@
       <c r="G293" s="23"/>
       <c r="H293" s="24"/>
       <c r="I293" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J293" s="6"/>
     </row>
     <row r="294" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A294" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>127</v>
@@ -9731,18 +9728,18 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J294" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="J294" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A295" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C295" s="6">
         <v>1928</v>
@@ -9765,7 +9762,7 @@
     </row>
     <row r="296" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A296" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>109</v>
@@ -9781,13 +9778,13 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J296" s="6"/>
     </row>
     <row r="297" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A297" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>101</v>
@@ -9805,13 +9802,13 @@
         <v>65.9</v>
       </c>
       <c r="I297" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J297" s="6"/>
     </row>
     <row r="298" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A298" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>24</v>
@@ -9839,7 +9836,7 @@
     </row>
     <row r="299" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A299" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>24</v>
@@ -9867,7 +9864,7 @@
     </row>
     <row r="300" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A300" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>56</v>
@@ -9895,7 +9892,7 @@
     </row>
     <row r="301" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A301" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>56</v>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="302" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A302" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>56</v>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="303" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A303" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>56</v>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="304" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A304" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>56</v>
@@ -10007,7 +10004,7 @@
     </row>
     <row r="305" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A305" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>56</v>
@@ -10035,7 +10032,7 @@
     </row>
     <row r="306" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A306" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>56</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="307" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A307" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>56</v>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="308" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A308" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>56</v>
@@ -10119,7 +10116,7 @@
     </row>
     <row r="309" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A309" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>56</v>
@@ -10147,7 +10144,7 @@
     </row>
     <row r="310" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A310" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>56</v>
@@ -10175,7 +10172,7 @@
     </row>
     <row r="311" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A311" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>108</v>
@@ -10201,7 +10198,7 @@
     </row>
     <row r="312" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A312" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>108</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="313" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A313" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>109</v>
@@ -10255,7 +10252,7 @@
     </row>
     <row r="314" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A314" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>98</v>
@@ -10283,7 +10280,7 @@
     </row>
     <row r="315" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A315" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>111</v>
@@ -10313,7 +10310,7 @@
     </row>
     <row r="316" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A316" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>182</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="317" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A317" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>112</v>
@@ -10371,7 +10368,7 @@
     </row>
     <row r="318" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A318" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>113</v>
@@ -10401,7 +10398,7 @@
     </row>
     <row r="319" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A319" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>114</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="320" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A320" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>183</v>
@@ -10461,7 +10458,7 @@
     </row>
     <row r="321" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A321" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>115</v>
@@ -10489,7 +10486,7 @@
     </row>
     <row r="322" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A322" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>95</v>
@@ -10519,7 +10516,7 @@
     </row>
     <row r="323" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A323" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>116</v>
@@ -10549,7 +10546,7 @@
     </row>
     <row r="324" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A324" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>117</v>
@@ -10577,7 +10574,7 @@
     </row>
     <row r="325" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A325" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>118</v>
@@ -10607,7 +10604,7 @@
     </row>
     <row r="326" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A326" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>119</v>
@@ -10635,7 +10632,7 @@
     </row>
     <row r="327" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A327" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>93</v>
@@ -10665,7 +10662,7 @@
     </row>
     <row r="328" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A328" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>120</v>
@@ -10695,7 +10692,7 @@
     </row>
     <row r="329" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A329" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>184</v>
@@ -10725,7 +10722,7 @@
     </row>
     <row r="330" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A330" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>121</v>
@@ -10755,7 +10752,7 @@
     </row>
     <row r="331" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A331" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>100</v>
@@ -10783,7 +10780,7 @@
     </row>
     <row r="332" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A332" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>122</v>
@@ -10813,7 +10810,7 @@
     </row>
     <row r="333" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A333" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>123</v>
@@ -10843,7 +10840,7 @@
     </row>
     <row r="334" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A334" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>124</v>
@@ -10873,7 +10870,7 @@
     </row>
     <row r="335" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A335" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>125</v>
@@ -10903,7 +10900,7 @@
     </row>
     <row r="336" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A336" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>126</v>
@@ -10933,7 +10930,7 @@
     </row>
     <row r="337" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A337" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>185</v>
@@ -10963,7 +10960,7 @@
     </row>
     <row r="338" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A338" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>102</v>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="339" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A339" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>127</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="340" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A340" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>24</v>
@@ -11045,13 +11042,13 @@
       </c>
       <c r="H340" s="5"/>
       <c r="I340" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J340" s="3"/>
     </row>
     <row r="341" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A341" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>127</v>
@@ -11073,13 +11070,13 @@
       </c>
       <c r="H341" s="5"/>
       <c r="I341" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J341" s="3"/>
     </row>
     <row r="342" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A342" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>24</v>
@@ -11105,7 +11102,7 @@
     </row>
     <row r="343" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A343" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>187</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="344" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A344" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>187</v>
@@ -11165,7 +11162,7 @@
     </row>
     <row r="345" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A345" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>187</v>
@@ -11195,7 +11192,7 @@
     </row>
     <row r="346" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A346" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>187</v>
@@ -11225,7 +11222,7 @@
     </row>
     <row r="347" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A347" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>187</v>
@@ -11255,7 +11252,7 @@
     </row>
     <row r="348" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A348" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>143</v>
@@ -11283,7 +11280,7 @@
     </row>
     <row r="349" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A349" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>143</v>
@@ -11311,7 +11308,7 @@
     </row>
     <row r="350" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A350" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>143</v>
@@ -11339,7 +11336,7 @@
     </row>
     <row r="351" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A351" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>143</v>
@@ -11367,7 +11364,7 @@
     </row>
     <row r="352" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A352" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>143</v>
@@ -11395,7 +11392,7 @@
     </row>
     <row r="353" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A353" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>143</v>
@@ -11423,7 +11420,7 @@
     </row>
     <row r="354" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A354" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>190</v>
@@ -11453,7 +11450,7 @@
     </row>
     <row r="355" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A355" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>140</v>
@@ -11483,7 +11480,7 @@
     </row>
     <row r="356" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A356" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>195</v>
@@ -11506,12 +11503,12 @@
       <c r="H356" s="5"/>
       <c r="I356" s="3"/>
       <c r="J356" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A357" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>64</v>
@@ -11536,12 +11533,12 @@
       </c>
       <c r="I357" s="3"/>
       <c r="J357" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A358" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>162</v>
@@ -11566,12 +11563,12 @@
       </c>
       <c r="I358" s="3"/>
       <c r="J358" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A359" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>197</v>
@@ -11596,15 +11593,15 @@
       </c>
       <c r="I359" s="3"/>
       <c r="J359" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A360" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C360" s="3">
         <v>2006</v>
@@ -11624,15 +11621,15 @@
       <c r="H360" s="5"/>
       <c r="I360" s="3"/>
       <c r="J360" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A361" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C361" s="3">
         <v>2005</v>
@@ -11652,12 +11649,12 @@
       <c r="H361" s="5"/>
       <c r="I361" s="3"/>
       <c r="J361" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A362" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>79</v>
@@ -11682,15 +11679,15 @@
       </c>
       <c r="I362" s="3"/>
       <c r="J362" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A363" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C363" s="3">
         <v>2004</v>
@@ -11712,7 +11709,7 @@
       </c>
       <c r="I363" s="3"/>
       <c r="J363" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -818,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t>济南市</t>
+    <t>济南</t>
   </si>
   <si>
     <t>高发年龄段为 20～39 岁；重点人群是工人、农民、干部职员、商业服务业。</t>
@@ -872,7 +872,7 @@
     <t>年龄最小3岁，最大12岁</t>
   </si>
   <si>
-    <t>郑州</t>
+    <t>郑州市</t>
   </si>
   <si>
     <t>均为幼托儿童、学生、和散居儿童，其他职业构成比很低</t>
@@ -1595,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="L170" sqref="L170"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>

--- a/temp/infections.xlsx
+++ b/temp/infections.xlsx
@@ -842,7 +842,7 @@
     <t>20~44 组年龄组人群共报告淋病 2 590 例,占 78.25%</t>
   </si>
   <si>
-    <t>太原市</t>
+    <t>太原</t>
   </si>
   <si>
     <t>　</t>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:J363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
